--- a/raw_data/USDT-USD_4h_process.xlsx
+++ b/raw_data/USDT-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>1.00076162815094</v>
+        <v>1.00096321105957</v>
       </c>
       <c r="C2">
-        <v>1.001115918159485</v>
+        <v>1.00203275680542</v>
       </c>
       <c r="D2">
-        <v>1.000373005867004</v>
+        <v>1.000194191932678</v>
       </c>
       <c r="E2">
-        <v>1.000844240188599</v>
+        <v>1.000442743301392</v>
       </c>
       <c r="F2">
-        <v>684490752</v>
+        <v>3539066880</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1.000856041908264</v>
+        <v>1.000465154647827</v>
       </c>
       <c r="C3">
-        <v>1.001150846481323</v>
+        <v>1.001008272171021</v>
       </c>
       <c r="D3">
-        <v>1.000501155853272</v>
+        <v>1.000321507453918</v>
       </c>
       <c r="E3">
-        <v>1.000967025756836</v>
+        <v>1.000595808029175</v>
       </c>
       <c r="F3">
-        <v>3021352960</v>
+        <v>515457024</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>1.00085437297821</v>
+        <v>1.000398874282837</v>
       </c>
       <c r="C4">
-        <v>1.00105619430542</v>
+        <v>1.000907778739929</v>
       </c>
       <c r="D4">
-        <v>1.000168323516846</v>
+        <v>1.000353693962097</v>
       </c>
       <c r="E4">
-        <v>1.000235557556152</v>
+        <v>1.000807046890259</v>
       </c>
       <c r="F4">
-        <v>2248556544</v>
+        <v>1307992064</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>1.000284194946289</v>
+        <v>1.00067949295044</v>
       </c>
       <c r="C5">
-        <v>1.001240134239197</v>
+        <v>1.001158952713013</v>
       </c>
       <c r="D5">
-        <v>1.000208854675293</v>
+        <v>1.000575661659241</v>
       </c>
       <c r="E5">
-        <v>1.000952243804932</v>
+        <v>1.000801920890808</v>
       </c>
       <c r="F5">
-        <v>315584512</v>
+        <v>627990528</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1.000897645950317</v>
+        <v>1.000720262527466</v>
       </c>
       <c r="C6">
-        <v>1.001461863517761</v>
+        <v>1.001238584518433</v>
       </c>
       <c r="D6">
-        <v>1.00002920627594</v>
+        <v>1.000607490539551</v>
       </c>
       <c r="E6">
-        <v>1.000292539596558</v>
+        <v>1.000985383987427</v>
       </c>
       <c r="F6">
-        <v>1882570752</v>
+        <v>903790592</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>1.000282287597656</v>
+        <v>1.000995874404907</v>
       </c>
       <c r="C7">
-        <v>1.001190423965454</v>
+        <v>1.001246094703674</v>
       </c>
       <c r="D7">
-        <v>1.000085473060608</v>
+        <v>1.000527501106262</v>
       </c>
       <c r="E7">
-        <v>1.0008225440979</v>
+        <v>1.000960111618042</v>
       </c>
       <c r="F7">
-        <v>105701376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>1.000336885452271</v>
+        <v>1.000862836837769</v>
       </c>
       <c r="C8">
-        <v>1.001331686973572</v>
+        <v>1.001593232154846</v>
       </c>
       <c r="D8">
-        <v>1.000195860862732</v>
+        <v>1.000801682472229</v>
       </c>
       <c r="E8">
-        <v>1.000992655754089</v>
+        <v>1.001267433166504</v>
       </c>
       <c r="F8">
-        <v>601690112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>1.001083254814148</v>
+        <v>1.001282930374146</v>
       </c>
       <c r="C9">
-        <v>1.001483917236328</v>
+        <v>1.001758933067322</v>
       </c>
       <c r="D9">
-        <v>1.00042462348938</v>
+        <v>1.000942349433899</v>
       </c>
       <c r="E9">
-        <v>1.000543236732483</v>
+        <v>1.001131176948547</v>
       </c>
       <c r="F9">
-        <v>975101952</v>
+        <v>1294086144</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>1.000499129295349</v>
+        <v>1.000933408737183</v>
       </c>
       <c r="C10">
-        <v>1.001142144203186</v>
+        <v>1.001573085784912</v>
       </c>
       <c r="D10">
-        <v>1.00028133392334</v>
+        <v>1.000715851783752</v>
       </c>
       <c r="E10">
-        <v>1.00081992149353</v>
+        <v>1.00095796585083</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>4023521280</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>1.000776290893555</v>
+        <v>1.000852704048157</v>
       </c>
       <c r="C11">
-        <v>1.001381039619446</v>
+        <v>1.001262307167053</v>
       </c>
       <c r="D11">
-        <v>1.000486493110657</v>
+        <v>1.000495433807373</v>
       </c>
       <c r="E11">
-        <v>1.001141667366028</v>
+        <v>1.001084923744202</v>
       </c>
       <c r="F11">
-        <v>437903360</v>
+        <v>542580736</v>
       </c>
       <c r="L11">
-        <v>57.66884321771172</v>
+        <v>68.07417985786489</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>1.001095771789551</v>
+        <v>1.001003623008728</v>
       </c>
       <c r="C12">
-        <v>1.001324534416199</v>
+        <v>1.001343131065369</v>
       </c>
       <c r="D12">
-        <v>1.000611543655396</v>
+        <v>1.000410199165344</v>
       </c>
       <c r="E12">
-        <v>1.000840425491333</v>
+        <v>1.000983715057373</v>
       </c>
       <c r="F12">
-        <v>401379328</v>
+        <v>1307414528</v>
       </c>
       <c r="L12">
-        <v>50.68946339373266</v>
+        <v>60.25031461516024</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>1.000867962837219</v>
+        <v>1.000812649726868</v>
       </c>
       <c r="C13">
-        <v>1.00117015838623</v>
+        <v>1.001459360122681</v>
       </c>
       <c r="D13">
-        <v>1.000050783157349</v>
+        <v>1.000481009483337</v>
       </c>
       <c r="E13">
-        <v>1.000455021858215</v>
+        <v>1.00069010257721</v>
       </c>
       <c r="F13">
-        <v>3286478848</v>
+        <v>897806336</v>
       </c>
       <c r="L13">
-        <v>43.1696493680744</v>
+        <v>43.81519314182042</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>1.00048041343689</v>
+        <v>1.000629663467407</v>
       </c>
       <c r="C14">
-        <v>1.00102972984314</v>
+        <v>1.001228213310242</v>
       </c>
       <c r="D14">
-        <v>0.9999524354934692</v>
+        <v>1.00053346157074</v>
       </c>
       <c r="E14">
-        <v>1.000494122505188</v>
+        <v>1.000803709030151</v>
       </c>
       <c r="F14">
-        <v>1063911424</v>
+        <v>348721152</v>
       </c>
       <c r="L14">
-        <v>44.11588317360589</v>
+        <v>49.77846480843588</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>1.000509858131409</v>
+        <v>1.000860095024109</v>
       </c>
       <c r="C15">
-        <v>1.000994801521301</v>
+        <v>1.001244902610779</v>
       </c>
       <c r="D15">
-        <v>1.000044226646423</v>
+        <v>1.000534057617188</v>
       </c>
       <c r="E15">
-        <v>1.000315427780151</v>
+        <v>1.000795245170593</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>681684992</v>
       </c>
       <c r="L15">
-        <v>40.63714587456947</v>
+        <v>49.33955137876083</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,25 +1309,25 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>1.000338673591614</v>
+        <v>1.000852584838867</v>
       </c>
       <c r="C16">
-        <v>1.000887989997864</v>
+        <v>1.00139319896698</v>
       </c>
       <c r="D16">
-        <v>0.9998827576637268</v>
+        <v>1.000661253929138</v>
       </c>
       <c r="E16">
-        <v>1.000423431396484</v>
+        <v>1.000886917114258</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>43.65805445396391</v>
+        <v>54.25437002277248</v>
       </c>
       <c r="M16">
-        <v>44.57094714826226</v>
+        <v>56.39749766674116</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1335,25 +1335,25 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>1.000196218490601</v>
+        <v>1.001070380210876</v>
       </c>
       <c r="C17">
-        <v>1.000985980033874</v>
+        <v>1.001331448554993</v>
       </c>
       <c r="D17">
-        <v>0.9998213052749634</v>
+        <v>1.000718832015991</v>
       </c>
       <c r="E17">
-        <v>1.000249266624451</v>
+        <v>1.000974774360657</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1144954880</v>
       </c>
       <c r="L17">
-        <v>39.96817896749813</v>
+        <v>58.58625251515458</v>
       </c>
       <c r="M17">
-        <v>41.82087542742568</v>
+        <v>59.57097088084394</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1361,25 +1361,25 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>1.000300645828247</v>
+        <v>1.000953793525696</v>
       </c>
       <c r="C18">
-        <v>1.000864863395691</v>
+        <v>1.001116275787354</v>
       </c>
       <c r="D18">
-        <v>0.9998326301574708</v>
+        <v>1.000505566596985</v>
       </c>
       <c r="E18">
-        <v>0.99995219707489</v>
+        <v>1.000626444816589</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>34.39069168984881</v>
+        <v>41.18920047208481</v>
       </c>
       <c r="M18">
-        <v>37.56351087884696</v>
+        <v>45.44776324739009</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1387,25 +1387,25 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>0.9999647736549376</v>
+        <v>1.000645995140076</v>
       </c>
       <c r="C19">
-        <v>1.000802159309387</v>
+        <v>1.000890493392944</v>
       </c>
       <c r="D19">
-        <v>0.9997540712356568</v>
+        <v>1.000361323356628</v>
       </c>
       <c r="E19">
-        <v>0.9999935030937196</v>
+        <v>1.000615954399109</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>35.79227599599333</v>
+        <v>40.77892954029855</v>
       </c>
       <c r="M19">
-        <v>38.50097750775369</v>
+        <v>45.10096916030319</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1413,25 +1413,25 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>1.000024557113648</v>
+        <v>1.000657439231873</v>
       </c>
       <c r="C20">
-        <v>1.00073230266571</v>
+        <v>1.000844836235046</v>
       </c>
       <c r="D20">
-        <v>0.9997800588607788</v>
+        <v>1.000450253486633</v>
       </c>
       <c r="E20">
-        <v>1.000281810760498</v>
+        <v>1.000691771507263</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>45.0156212267075</v>
+        <v>45.21573315284857</v>
       </c>
       <c r="M20">
-        <v>44.73792473070338</v>
+        <v>48.17867300363903</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1439,28 +1439,28 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>1.000203609466553</v>
+        <v>1.000727534294128</v>
       </c>
       <c r="C21">
-        <v>1.001256585121155</v>
+        <v>1.000891923904419</v>
       </c>
       <c r="D21">
-        <v>0.9998292922973632</v>
+        <v>1.000296473503113</v>
       </c>
       <c r="E21">
-        <v>0.999922215938568</v>
+        <v>1.00053071975708</v>
       </c>
       <c r="F21">
-        <v>143681536</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1.00052695274353</v>
+        <v>1.000831693410873</v>
       </c>
       <c r="L21">
-        <v>37.46421857674808</v>
+        <v>38.34968949799654</v>
       </c>
       <c r="M21">
-        <v>39.37429740340982</v>
+        <v>42.70226297968193</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1468,31 +1468,31 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>0.9999122023582458</v>
+        <v>1.000502824783325</v>
       </c>
       <c r="C22">
-        <v>1.000534296035767</v>
+        <v>1.001210570335388</v>
       </c>
       <c r="D22">
-        <v>0.9995654821395874</v>
+        <v>1.000463843345642</v>
       </c>
       <c r="E22">
-        <v>0.9996464252471924</v>
+        <v>1.000658631324768</v>
       </c>
       <c r="F22">
-        <v>761378816</v>
+        <v>324655104</v>
       </c>
       <c r="G22">
-        <v>1.000485022862752</v>
+        <v>1.000823452359154</v>
       </c>
       <c r="H22">
-        <v>1.00046706199646</v>
+        <v>1.000842487812042</v>
       </c>
       <c r="L22">
-        <v>32.72732539624488</v>
+        <v>45.7150397302813</v>
       </c>
       <c r="M22">
-        <v>35.82665468565544</v>
+        <v>47.77932704104589</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1500,31 +1500,31 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>0.9996560215950012</v>
+        <v>1.000501990318298</v>
       </c>
       <c r="C23">
-        <v>1.000332832336426</v>
+        <v>1.001160502433777</v>
       </c>
       <c r="D23">
-        <v>0.9994879364967346</v>
+        <v>1.000450730323792</v>
       </c>
       <c r="E23">
-        <v>0.9996095895767212</v>
+        <v>1.00066864490509</v>
       </c>
       <c r="F23">
-        <v>287166464</v>
+        <v>68564992</v>
       </c>
       <c r="G23">
-        <v>1.000405438018567</v>
+        <v>1.000809378954239</v>
       </c>
       <c r="H23">
-        <v>1.000399190187454</v>
+        <v>1.000846129655838</v>
       </c>
       <c r="L23">
-        <v>32.11714900875836</v>
+        <v>46.28026823669626</v>
       </c>
       <c r="M23">
-        <v>35.36828621797955</v>
+        <v>48.1665397675691</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1532,31 +1532,31 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>0.9996519088745116</v>
+        <v>1.000555396080017</v>
       </c>
       <c r="C24">
-        <v>1.000290513038635</v>
+        <v>1.00098729133606</v>
       </c>
       <c r="D24">
-        <v>0.9995182752609252</v>
+        <v>1.000356435775757</v>
       </c>
       <c r="E24">
-        <v>0.9996153712272644</v>
+        <v>1.000525593757629</v>
       </c>
       <c r="F24">
-        <v>609654784</v>
+        <v>244785152</v>
       </c>
       <c r="G24">
-        <v>1.000333613764812</v>
+        <v>1.000783580300002</v>
       </c>
       <c r="H24">
-        <v>1.00036818087101</v>
+        <v>1.000832056999207</v>
       </c>
       <c r="L24">
-        <v>32.33989675606066</v>
+        <v>39.64592979877413</v>
       </c>
       <c r="M24">
-        <v>35.5077572128381</v>
+        <v>43.23452371962811</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1564,31 +1564,31 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>0.99967622756958</v>
+        <v>1.000658392906189</v>
       </c>
       <c r="C25">
-        <v>1.000450968742371</v>
+        <v>1.000769019126892</v>
       </c>
       <c r="D25">
-        <v>0.9994901418685912</v>
+        <v>1.000160694122314</v>
       </c>
       <c r="E25">
-        <v>0.9996904730796814</v>
+        <v>1.000581383705139</v>
       </c>
       <c r="F25">
-        <v>17559552</v>
+        <v>912263168</v>
       </c>
       <c r="G25">
-        <v>1.000275146429801</v>
+        <v>1.000765198791378</v>
       </c>
       <c r="H25">
-        <v>1.000305092334747</v>
+        <v>1.000821030139923</v>
       </c>
       <c r="L25">
-        <v>35.43586105204466</v>
+        <v>43.21730041083786</v>
       </c>
       <c r="M25">
-        <v>37.39754520196869</v>
+        <v>45.57511634618901</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1596,31 +1596,31 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>0.999678671360016</v>
+        <v>1.00060510635376</v>
       </c>
       <c r="C26">
-        <v>1.000391840934753</v>
+        <v>1.001126646995544</v>
       </c>
       <c r="D26">
-        <v>0.9993430376052856</v>
+        <v>1.000392913818359</v>
       </c>
       <c r="E26">
-        <v>0.9999002814292908</v>
+        <v>1.00056517124176</v>
       </c>
       <c r="F26">
-        <v>2646970368</v>
+        <v>581632000</v>
       </c>
       <c r="G26">
-        <v>1.000241067793391</v>
+        <v>1.000747014468685</v>
       </c>
       <c r="H26">
-        <v>1.000285479426384</v>
+        <v>1.00080001950264</v>
       </c>
       <c r="L26">
-        <v>43.55342181506183</v>
+        <v>42.39711833517617</v>
       </c>
       <c r="M26">
-        <v>42.4693409479471</v>
+        <v>44.99451391564576</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1628,31 +1628,31 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>0.9999045133590698</v>
+        <v>1.000588178634644</v>
       </c>
       <c r="C27">
-        <v>1.000334620475769</v>
+        <v>1.001139998435974</v>
       </c>
       <c r="D27">
-        <v>0.9995819926261902</v>
+        <v>1.00042450428009</v>
       </c>
       <c r="E27">
-        <v>1.000042080879211</v>
+        <v>1.000528693199157</v>
       </c>
       <c r="F27">
-        <v>943108096</v>
+        <v>1979547648</v>
       </c>
       <c r="G27">
-        <v>1.00022297807392</v>
+        <v>1.000727167080546</v>
       </c>
       <c r="H27">
-        <v>1.00024645626545</v>
+        <v>1.000778448581696</v>
       </c>
       <c r="L27">
-        <v>48.4786434146431</v>
+        <v>40.45378695947318</v>
       </c>
       <c r="M27">
-        <v>45.67283482035674</v>
+        <v>43.64718236993159</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1660,31 +1660,31 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>0.9999334812164308</v>
+        <v>1.000714063644409</v>
       </c>
       <c r="C28">
-        <v>1.00065803527832</v>
+        <v>1.000953674316406</v>
       </c>
       <c r="D28">
-        <v>0.9997959733009338</v>
+        <v>1.000295400619507</v>
       </c>
       <c r="E28">
-        <v>0.9999664425849916</v>
+        <v>1.000442504882812</v>
       </c>
       <c r="F28">
-        <v>989722624</v>
+        <v>5041833984</v>
       </c>
       <c r="G28">
-        <v>1.000199656665835</v>
+        <v>1.000701288698934</v>
       </c>
       <c r="H28">
-        <v>1.000195145606995</v>
+        <v>1.000737202167511</v>
       </c>
       <c r="L28">
-        <v>46.06655304304412</v>
+        <v>36.06030080892138</v>
       </c>
       <c r="M28">
-        <v>44.25717122632931</v>
+        <v>40.55701203111938</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1692,31 +1692,31 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>0.999902367591858</v>
+        <v>1.000474452972412</v>
       </c>
       <c r="C29">
-        <v>1.000658631324768</v>
+        <v>1.000919699668884</v>
       </c>
       <c r="D29">
-        <v>0.9998353123664856</v>
+        <v>1.000160455703735</v>
       </c>
       <c r="E29">
-        <v>0.9998985528945924</v>
+        <v>1.00044858455658</v>
       </c>
       <c r="F29">
-        <v>177315840</v>
+        <v>3404636160</v>
       </c>
       <c r="G29">
-        <v>1.000172283595722</v>
+        <v>1.000678315595084</v>
       </c>
       <c r="H29">
-        <v>1.0001629114151</v>
+        <v>1.000703072547913</v>
       </c>
       <c r="L29">
-        <v>43.86284267350045</v>
+        <v>36.60665982614933</v>
       </c>
       <c r="M29">
-        <v>42.96977578101593</v>
+        <v>40.87500235498442</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1724,31 +1724,31 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>0.9999405741691588</v>
+        <v>1.000331401824951</v>
       </c>
       <c r="C30">
-        <v>1.000547289848328</v>
+        <v>1.001379489898682</v>
       </c>
       <c r="D30">
-        <v>0.9998432993888856</v>
+        <v>1.000219345092773</v>
       </c>
       <c r="E30">
-        <v>1.000132918357849</v>
+        <v>1.000591039657593</v>
       </c>
       <c r="F30">
-        <v>409255936</v>
+        <v>1543041024</v>
       </c>
       <c r="G30">
-        <v>1.000168704937734</v>
+        <v>1.000670381418948</v>
       </c>
       <c r="H30">
-        <v>1.000128561258316</v>
+        <v>1.000684726238251</v>
       </c>
       <c r="L30">
-        <v>52.65824071485589</v>
+        <v>48.26073976962181</v>
       </c>
       <c r="M30">
-        <v>48.53537116245172</v>
+        <v>47.90694776135402</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1756,34 +1756,34 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>1.000179409980774</v>
+        <v>1.000542044639587</v>
       </c>
       <c r="C31">
-        <v>1.00068998336792</v>
+        <v>1.001242876052856</v>
       </c>
       <c r="D31">
-        <v>1.000023007392883</v>
+        <v>1.000494599342346</v>
       </c>
       <c r="E31">
-        <v>1.000388503074646</v>
+        <v>1.000783801078796</v>
       </c>
       <c r="F31">
-        <v>2010382336</v>
+        <v>7214301184</v>
       </c>
       <c r="G31">
-        <v>1.000188686586544</v>
+        <v>1.000680692297116</v>
       </c>
       <c r="H31">
-        <v>1.000090903043747</v>
+        <v>1.00066967010498</v>
       </c>
       <c r="I31">
-        <v>1.000314323107401</v>
+        <v>1.00074759721756</v>
       </c>
       <c r="L31">
-        <v>60.29109221571335</v>
+        <v>59.57404049238342</v>
       </c>
       <c r="M31">
-        <v>53.82734129641183</v>
+        <v>55.60174307721496</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1791,1160 +1791,1157 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>1.00032103061676</v>
+        <v>1.000672459602356</v>
       </c>
       <c r="C32">
-        <v>1.00067138671875</v>
+        <v>1.001232147216797</v>
       </c>
       <c r="D32">
-        <v>1.000048160552978</v>
+        <v>1.000409722328186</v>
       </c>
       <c r="E32">
-        <v>1.000314950942993</v>
+        <v>1.000925183296204</v>
       </c>
       <c r="F32">
-        <v>1239810048</v>
+        <v>10380804096</v>
       </c>
       <c r="G32">
-        <v>1.000200165164403</v>
+        <v>1.000702918751578</v>
       </c>
       <c r="H32">
-        <v>1.00006462931633</v>
+        <v>1.000666743516922</v>
       </c>
       <c r="I32">
-        <v>1.000296680132548</v>
+        <v>1.00076367855072</v>
       </c>
       <c r="L32">
-        <v>57.30012995870707</v>
+        <v>65.75304209751594</v>
       </c>
       <c r="M32">
-        <v>52.16495317199327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>60.24065226815043</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>1.000272989273071</v>
+        <v>1.000795483589172</v>
       </c>
       <c r="C33">
-        <v>1.001126408576965</v>
+        <v>1.001030564308167</v>
       </c>
       <c r="D33">
-        <v>1.000165104866028</v>
+        <v>1.000557899475098</v>
       </c>
       <c r="E33">
-        <v>1.000914931297302</v>
+        <v>1.000765204429626</v>
       </c>
       <c r="F33">
-        <v>7028670464</v>
+        <v>2898419712</v>
       </c>
       <c r="G33">
-        <v>1.000265143903758</v>
+        <v>1.000708581085946</v>
       </c>
       <c r="H33">
-        <v>1.000087624788284</v>
+        <v>1.000670498609543</v>
       </c>
       <c r="I33">
-        <v>1.000294943650563</v>
+        <v>1.000769325097402</v>
       </c>
       <c r="L33">
-        <v>70.65809656654302</v>
+        <v>55.04322215013422</v>
       </c>
       <c r="M33">
-        <v>62.37323828913092</v>
-      </c>
-      <c r="O33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>53.43696635907772</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>1.000909924507141</v>
+        <v>1.000842571258545</v>
       </c>
       <c r="C34">
-        <v>1.001062750816345</v>
+        <v>1.000980138778686</v>
       </c>
       <c r="D34">
-        <v>1.000117182731628</v>
+        <v>1.0001620054245</v>
       </c>
       <c r="E34">
-        <v>1.000638484954834</v>
+        <v>1.000611782073975</v>
       </c>
       <c r="F34">
-        <v>2734882816</v>
+        <v>841371648</v>
       </c>
       <c r="G34">
-        <v>1.00029908399931</v>
+        <v>1.000699781175767</v>
       </c>
       <c r="H34">
-        <v>1.000094842910767</v>
+        <v>1.000660902261734</v>
       </c>
       <c r="I34">
-        <v>1.000308374563853</v>
+        <v>1.000762816270192</v>
       </c>
       <c r="L34">
-        <v>60.79901061183007</v>
+        <v>46.81622633043639</v>
       </c>
       <c r="M34">
-        <v>56.40081638171223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>47.85493771878329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>1.000810503959656</v>
+        <v>1.000692486763</v>
       </c>
       <c r="C35">
-        <v>1.001125574111938</v>
+        <v>1.000816345214844</v>
       </c>
       <c r="D35">
-        <v>1.000355958938599</v>
+        <v>1.000210285186768</v>
       </c>
       <c r="E35">
-        <v>1.00077474117279</v>
+        <v>1.00051212310791</v>
       </c>
       <c r="F35">
-        <v>6229200896</v>
+        <v>89018368</v>
       </c>
       <c r="G35">
-        <v>1.000342325560535</v>
+        <v>1.000682721351416</v>
       </c>
       <c r="H35">
-        <v>1.000117808580399</v>
+        <v>1.0006467461586</v>
       </c>
       <c r="I35">
-        <v>1.000302457809448</v>
+        <v>1.000753156344096</v>
       </c>
       <c r="L35">
-        <v>63.61418215731575</v>
+        <v>42.20629064971703</v>
       </c>
       <c r="M35">
-        <v>58.50959055165732</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>44.59612219791063</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>1.000903248786926</v>
+        <v>1.000503063201904</v>
       </c>
       <c r="C36">
-        <v>1.001394867897034</v>
+        <v>1.000776886940002</v>
       </c>
       <c r="D36">
-        <v>1.000437021255493</v>
+        <v>1.000208497047424</v>
       </c>
       <c r="E36">
-        <v>1.000888586044312</v>
+        <v>1.000545263290405</v>
       </c>
       <c r="F36">
-        <v>6478757888</v>
+        <v>764600320</v>
       </c>
       <c r="G36">
-        <v>1.000391985604515</v>
+        <v>1.000670225164052</v>
       </c>
       <c r="H36">
-        <v>1.00014106631279</v>
+        <v>1.000629663467407</v>
       </c>
       <c r="I36">
-        <v>1.000322326024373</v>
+        <v>1.000738485654195</v>
       </c>
       <c r="L36">
-        <v>65.91499285983791</v>
+        <v>44.25962370742228</v>
       </c>
       <c r="M36">
-        <v>60.23996578337005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>45.91508448563529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>1.000865817070007</v>
+        <v>1.000625371932983</v>
       </c>
       <c r="C37">
-        <v>1.001004576683044</v>
+        <v>1.000928282737732</v>
       </c>
       <c r="D37">
-        <v>1.000202298164368</v>
+        <v>1.000236749649048</v>
       </c>
       <c r="E37">
-        <v>1.000306606292725</v>
+        <v>1.000256538391113</v>
       </c>
       <c r="F37">
-        <v>2042523648</v>
+        <v>1785360384</v>
       </c>
       <c r="G37">
-        <v>1.000384223848898</v>
+        <v>1.000632617275603</v>
       </c>
       <c r="H37">
-        <v>1.000143933296204</v>
+        <v>1.00059375166893</v>
       </c>
       <c r="I37">
-        <v>1.000305128097534</v>
+        <v>1.000715033213297</v>
       </c>
       <c r="L37">
-        <v>48.33681945329446</v>
+        <v>32.82805467976473</v>
       </c>
       <c r="M37">
-        <v>48.99151892920515</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>37.5319352077554</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>1.000210046768188</v>
+        <v>1.000393152236938</v>
       </c>
       <c r="C38">
-        <v>1.001143336296082</v>
+        <v>1.000725388526917</v>
       </c>
       <c r="D38">
-        <v>1.000096440315247</v>
+        <v>1.000179886817932</v>
       </c>
       <c r="E38">
-        <v>1.000429272651672</v>
+        <v>1.000332117080688</v>
       </c>
       <c r="F38">
-        <v>982265856</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1.000388319194605</v>
+        <v>1.000605299076065</v>
       </c>
       <c r="H38">
-        <v>1.000167787075043</v>
+        <v>1.000579035282135</v>
       </c>
       <c r="I38">
-        <v>1.000286348660787</v>
+        <v>1.000683856010437</v>
       </c>
       <c r="L38">
-        <v>51.4094575078332</v>
+        <v>37.57611838860699</v>
       </c>
       <c r="M38">
-        <v>51.06559389299387</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>40.58976216710162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>1.000433921813965</v>
+        <v>1.000301837921143</v>
       </c>
       <c r="C39">
-        <v>1.00103497505188</v>
+        <v>1.000574231147766</v>
       </c>
       <c r="D39">
-        <v>1.000241637229919</v>
+        <v>0.9994227886199952</v>
       </c>
       <c r="E39">
-        <v>1.00046980381012</v>
+        <v>1.000150918960571</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>12053188608</v>
       </c>
       <c r="G39">
-        <v>1.000395726886924</v>
+        <v>1.000563991792838</v>
       </c>
       <c r="H39">
-        <v>1.000191602110863</v>
+        <v>1.000555783510208</v>
       </c>
       <c r="I39">
-        <v>1.000283900896708</v>
+        <v>1.000651180744171</v>
       </c>
       <c r="L39">
-        <v>52.46045422238327</v>
+        <v>31.55934743713503</v>
       </c>
       <c r="M39">
-        <v>51.7635143725516</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>36.03544049262727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>1.000572204589844</v>
+        <v>1.000234723091126</v>
       </c>
       <c r="C40">
-        <v>1.001054406166077</v>
+        <v>1.000563502311706</v>
       </c>
       <c r="D40">
-        <v>1.000172853469849</v>
+        <v>0.9997850656509401</v>
       </c>
       <c r="E40">
-        <v>1.000554084777832</v>
+        <v>1.00042986869812</v>
       </c>
       <c r="F40">
-        <v>220905472</v>
+        <v>134168576</v>
       </c>
       <c r="G40">
-        <v>1.000410123058825</v>
+        <v>1.000551798784227</v>
       </c>
       <c r="H40">
-        <v>1.000205215811729</v>
+        <v>1.000542688369751</v>
       </c>
       <c r="I40">
-        <v>1.000275039672851</v>
+        <v>1.000633577505748</v>
       </c>
       <c r="L40">
-        <v>54.75005962452424</v>
+        <v>46.41842449063451</v>
       </c>
       <c r="M40">
-        <v>53.25644137473329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>46.0679791497238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>1.000558018684387</v>
+        <v>1.000389933586121</v>
       </c>
       <c r="C41">
-        <v>1.001085042953491</v>
+        <v>1.000833034515381</v>
       </c>
       <c r="D41">
-        <v>1.000165939331055</v>
+        <v>1.00011944770813</v>
       </c>
       <c r="E41">
-        <v>1.000724911689758</v>
+        <v>1.000376343727112</v>
       </c>
       <c r="F41">
-        <v>3109552128</v>
+        <v>46940160</v>
       </c>
       <c r="G41">
-        <v>1.000438740207092</v>
+        <v>1.000535848324489</v>
       </c>
       <c r="H41">
-        <v>1.000245350599289</v>
+        <v>1.000534969568253</v>
       </c>
       <c r="I41">
-        <v>1.000261147816976</v>
+        <v>1.000609958171844</v>
       </c>
       <c r="L41">
-        <v>59.22770848459837</v>
+        <v>44.34035592027696</v>
       </c>
       <c r="M41">
-        <v>56.21448666985303</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>44.62176263361857</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>1.0005863904953</v>
+        <v>1.000711560249329</v>
       </c>
       <c r="C42">
-        <v>1.003630042076111</v>
+        <v>1.000908255577087</v>
       </c>
       <c r="D42">
-        <v>1.000424265861511</v>
+        <v>1.000150680541992</v>
       </c>
       <c r="E42">
-        <v>1.000660300254822</v>
+        <v>1.000464081764221</v>
       </c>
       <c r="F42">
-        <v>26563219456</v>
+        <v>1701478400</v>
       </c>
       <c r="G42">
-        <v>1.000458882029613</v>
+        <v>1.000529324091738</v>
       </c>
       <c r="H42">
-        <v>1.00029604434967</v>
+        <v>1.000525242090225</v>
       </c>
       <c r="I42">
-        <v>1.000255143642426</v>
+        <v>1.000592637062073</v>
       </c>
       <c r="L42">
-        <v>56.83466312626254</v>
+        <v>48.58501836609955</v>
       </c>
       <c r="M42">
-        <v>54.80189575386598</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>47.52956557794747</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>1.00096321105957</v>
+        <v>1.00044846534729</v>
       </c>
       <c r="C43">
-        <v>1.00203275680542</v>
+        <v>1.000873684883118</v>
       </c>
       <c r="D43">
-        <v>1.000194191932678</v>
+        <v>1.00013279914856</v>
       </c>
       <c r="E43">
-        <v>1.000442743301392</v>
+        <v>1.000445246696472</v>
       </c>
       <c r="F43">
-        <v>7230324736</v>
+        <v>2690072576</v>
       </c>
       <c r="G43">
-        <v>1.000457414872502</v>
+        <v>1.000521680692168</v>
       </c>
       <c r="H43">
-        <v>1.000337702035904</v>
+        <v>1.000514072179794</v>
       </c>
       <c r="I43">
-        <v>1.000254734357198</v>
+        <v>1.000584475199382</v>
       </c>
       <c r="L43">
-        <v>49.29058650299983</v>
+        <v>47.70637835248302</v>
       </c>
       <c r="M43">
-        <v>50.22533465556842</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>46.95951498442664</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>1.000465154647827</v>
+        <v>1.000255942344666</v>
       </c>
       <c r="C44">
-        <v>1.001008272171021</v>
+        <v>1.001078367233276</v>
       </c>
       <c r="D44">
-        <v>1.000321507453918</v>
+        <v>1.000170707702637</v>
       </c>
       <c r="E44">
-        <v>1.000595808029175</v>
+        <v>1.000553369522095</v>
       </c>
       <c r="F44">
-        <v>515457024</v>
+        <v>6662266880</v>
       </c>
       <c r="G44">
-        <v>1.000469996068563</v>
+        <v>1.000524561494889</v>
       </c>
       <c r="H44">
-        <v>1.000386723875999</v>
+        <v>1.000515460968018</v>
       </c>
       <c r="I44">
-        <v>1.000258123874664</v>
+        <v>1.000576130549113</v>
       </c>
       <c r="L44">
-        <v>54.11172100833717</v>
+        <v>53.1751267047991</v>
       </c>
       <c r="M44">
-        <v>53.18739133094676</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>50.6207603826961</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>1.000398874282837</v>
+        <v>1.000616908073425</v>
       </c>
       <c r="C45">
-        <v>1.000907778739929</v>
+        <v>1.000958800315857</v>
       </c>
       <c r="D45">
-        <v>1.000353693962097</v>
+        <v>0.9997323751449584</v>
       </c>
       <c r="E45">
-        <v>1.000807046890259</v>
+        <v>1.000142216682434</v>
       </c>
       <c r="F45">
-        <v>1307992064</v>
+        <v>12058836992</v>
       </c>
       <c r="G45">
-        <v>1.000500637052353</v>
+        <v>1.000489802875575</v>
       </c>
       <c r="H45">
-        <v>1.000442552566528</v>
+        <v>1.000493502616882</v>
       </c>
       <c r="I45">
-        <v>1.000274511178335</v>
+        <v>1.000554362932841</v>
       </c>
       <c r="L45">
-        <v>60.01400123600234</v>
+        <v>36.73885620258775</v>
       </c>
       <c r="M45">
-        <v>56.99125676219469</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>39.46490242076963</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>1.00067949295044</v>
+        <v>1.000473499298096</v>
       </c>
       <c r="C46">
-        <v>1.001158952713013</v>
+        <v>1.000786900520325</v>
       </c>
       <c r="D46">
-        <v>1.000575661659241</v>
+        <v>0.9997722506523132</v>
       </c>
       <c r="E46">
-        <v>1.000801920890808</v>
+        <v>1.00023078918457</v>
       </c>
       <c r="F46">
-        <v>627990528</v>
+        <v>2800590848</v>
       </c>
       <c r="G46">
-        <v>1.000528026492213</v>
+        <v>1.000466256176392</v>
       </c>
       <c r="H46">
-        <v>1.000487634539604</v>
+        <v>1.000476783514023</v>
       </c>
       <c r="I46">
-        <v>1.000287127494812</v>
+        <v>1.000532492001851</v>
       </c>
       <c r="L46">
-        <v>59.80400785533579</v>
+        <v>41.14752638367841</v>
       </c>
       <c r="M46">
-        <v>56.87049242240481</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>42.40936785248753</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>1.000720262527466</v>
+        <v>1.000545740127564</v>
       </c>
       <c r="C47">
-        <v>1.001238584518433</v>
+        <v>1.000545740127564</v>
       </c>
       <c r="D47">
-        <v>1.000607490539551</v>
+        <v>0.9997335076332092</v>
       </c>
       <c r="E47">
-        <v>1.000985383987427</v>
+        <v>1.000323295593261</v>
       </c>
       <c r="F47">
-        <v>903790592</v>
+        <v>3387842560</v>
       </c>
       <c r="G47">
-        <v>1.000569604446323</v>
+        <v>1.000453259759744</v>
       </c>
       <c r="H47">
-        <v>1.000534799695015</v>
+        <v>1.000466513633728</v>
       </c>
       <c r="I47">
-        <v>1.000311664740245</v>
+        <v>1.000510776042938</v>
       </c>
       <c r="L47">
-        <v>64.76781887707507</v>
+        <v>45.60183448863867</v>
       </c>
       <c r="M47">
-        <v>60.12708419033336</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>45.39664901381417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>1.000995874404907</v>
+        <v>1.000352025032044</v>
       </c>
       <c r="C48">
-        <v>1.001246094703674</v>
+        <v>1.000481128692627</v>
       </c>
       <c r="D48">
-        <v>1.000527501106262</v>
+        <v>0.9995732307434082</v>
       </c>
       <c r="E48">
-        <v>1.000960111618042</v>
+        <v>1.000481128692627</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>3121184768</v>
       </c>
       <c r="G48">
-        <v>1.000605105098297</v>
+        <v>1.000455793299097</v>
       </c>
       <c r="H48">
-        <v>1.000584483146667</v>
+        <v>1.000468444824219</v>
       </c>
       <c r="I48">
-        <v>1.000345261891683</v>
+        <v>1.000505932172139</v>
       </c>
       <c r="L48">
-        <v>63.55160824623763</v>
+        <v>52.50214058854233</v>
       </c>
       <c r="M48">
-        <v>59.46103969368697</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>50.14800673969263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>1.000862836837769</v>
+        <v>1.000130772590637</v>
       </c>
       <c r="C49">
-        <v>1.001593232154846</v>
+        <v>1.001113772392273</v>
       </c>
       <c r="D49">
-        <v>1.000801682472229</v>
+        <v>0.9992440938949584</v>
       </c>
       <c r="E49">
-        <v>1.001267433166504</v>
+        <v>0.9997770190238952</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>10184663040</v>
       </c>
       <c r="G49">
-        <v>1.000665316740862</v>
+        <v>1.000394086546806</v>
       </c>
       <c r="H49">
-        <v>1.000652927160263</v>
+        <v>1.000434866547585</v>
       </c>
       <c r="I49">
-        <v>1.000387726227442</v>
+        <v>1.000477967659632</v>
       </c>
       <c r="L49">
-        <v>71.00115429428172</v>
+        <v>32.07965675442701</v>
       </c>
       <c r="M49">
-        <v>64.59682693567684</v>
-      </c>
-      <c r="O49" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>35.36413035266764</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>1.001282930374146</v>
+        <v>0.9999220967292786</v>
       </c>
       <c r="C50">
-        <v>1.001758933067322</v>
+        <v>1.000155687332153</v>
       </c>
       <c r="D50">
-        <v>1.000942349433899</v>
+        <v>0.9991078972816468</v>
       </c>
       <c r="E50">
-        <v>1.001131176948547</v>
+        <v>0.9999268651008606</v>
       </c>
       <c r="F50">
-        <v>1294086144</v>
+        <v>3721674752</v>
       </c>
       <c r="G50">
-        <v>1.000707667668833</v>
+        <v>1.000351611869902</v>
       </c>
       <c r="H50">
-        <v>1.000702840089798</v>
+        <v>1.000401657819748</v>
       </c>
       <c r="I50">
-        <v>1.000416038433711</v>
+        <v>1.000452470779419</v>
       </c>
       <c r="L50">
-        <v>64.43255688904802</v>
+        <v>37.86617384522683</v>
       </c>
       <c r="M50">
-        <v>60.9122545495166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>39.45488566879841</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>1.000933408737183</v>
+        <v>1.000084519386292</v>
       </c>
       <c r="C51">
-        <v>1.001573085784912</v>
+        <v>1.000514507293701</v>
       </c>
       <c r="D51">
-        <v>1.000715851783752</v>
+        <v>0.9995575547218324</v>
       </c>
       <c r="E51">
-        <v>1.00095796585083</v>
+        <v>1.000056266784668</v>
       </c>
       <c r="F51">
-        <v>4023521280</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1.000730422049015</v>
+        <v>1.000324762316699</v>
       </c>
       <c r="H51">
-        <v>1.000731313228607</v>
+        <v>1.000365281105041</v>
       </c>
       <c r="I51">
-        <v>1.000450563430786</v>
+        <v>1.000436655680339</v>
       </c>
       <c r="L51">
-        <v>56.90384382942304</v>
+        <v>42.61577318068485</v>
       </c>
       <c r="M51">
-        <v>56.50030283911612</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>42.82039128491929</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>1.000852704048157</v>
+        <v>1.000290513038635</v>
       </c>
       <c r="C52">
-        <v>1.001262307167053</v>
+        <v>1.000343441963196</v>
       </c>
       <c r="D52">
-        <v>1.000495433807373</v>
+        <v>0.9996896386146544</v>
       </c>
       <c r="E52">
-        <v>1.001084923744202</v>
+        <v>1.000189661979675</v>
       </c>
       <c r="F52">
-        <v>542580736</v>
+        <v>5201920</v>
       </c>
       <c r="G52">
-        <v>1.00076264947585</v>
+        <v>1.000312480467878</v>
       </c>
       <c r="H52">
-        <v>1.000769811868668</v>
+        <v>1.000328505039215</v>
       </c>
       <c r="I52">
-        <v>1.000498513380687</v>
+        <v>1.000421023368836</v>
       </c>
       <c r="L52">
-        <v>60.69124400709141</v>
+        <v>47.28866447631863</v>
       </c>
       <c r="M52">
-        <v>58.85283039704001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>46.14385846019115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>1.001003623008728</v>
+        <v>1.000081658363343</v>
       </c>
       <c r="C53">
-        <v>1.001343131065369</v>
+        <v>1.00034487247467</v>
       </c>
       <c r="D53">
-        <v>1.000410199165344</v>
+        <v>0.9996302127838136</v>
       </c>
       <c r="E53">
-        <v>1.000983715057373</v>
+        <v>1.000156044960022</v>
       </c>
       <c r="F53">
-        <v>1307414528</v>
+        <v>63406080</v>
       </c>
       <c r="G53">
-        <v>1.000782746346897</v>
+        <v>1.000298259058073</v>
       </c>
       <c r="H53">
-        <v>1.000773251056671</v>
+        <v>1.000298047065735</v>
       </c>
       <c r="I53">
-        <v>1.000544317563375</v>
+        <v>1.000403936704</v>
       </c>
       <c r="L53">
-        <v>56.25728160012529</v>
+        <v>46.22155436717701</v>
       </c>
       <c r="M53">
-        <v>56.24157858799364</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>45.4272687850855</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>1.000812649726868</v>
+        <v>1.000164270401001</v>
       </c>
       <c r="C54">
-        <v>1.001459360122681</v>
+        <v>1.00031566619873</v>
       </c>
       <c r="D54">
-        <v>1.000481009483337</v>
+        <v>0.9991936087608336</v>
       </c>
       <c r="E54">
-        <v>1.00069010257721</v>
+        <v>1.000071167945862</v>
       </c>
       <c r="F54">
-        <v>897806336</v>
+        <v>366010368</v>
       </c>
       <c r="G54">
-        <v>1.000774324186017</v>
+        <v>1.000277614411509</v>
       </c>
       <c r="H54">
-        <v>1.00077583193779</v>
+        <v>1.000271016359329</v>
       </c>
       <c r="I54">
-        <v>1.000580141941706</v>
+        <v>1.000388789176941</v>
       </c>
       <c r="L54">
-        <v>45.426002805019</v>
+        <v>43.43736322468445</v>
       </c>
       <c r="M54">
-        <v>49.39455419849359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>43.58680513085282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>1.000629663467407</v>
+        <v>0.9999796152114868</v>
       </c>
       <c r="C55">
-        <v>1.001228213310242</v>
+        <v>1.000401020050049</v>
       </c>
       <c r="D55">
-        <v>1.00053346157074</v>
+        <v>0.9993900656700134</v>
       </c>
       <c r="E55">
-        <v>1.000803709030151</v>
+        <v>0.9996547102928162</v>
       </c>
       <c r="F55">
-        <v>348721152</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>1.000776995535483</v>
+        <v>1.000220986764355</v>
       </c>
       <c r="H55">
-        <v>1.000777280330658</v>
+        <v>1.000228145718574</v>
       </c>
       <c r="I55">
-        <v>1.000617249806722</v>
+        <v>1.000357900063197</v>
       </c>
       <c r="L55">
-        <v>49.64603421531712</v>
+        <v>32.59846893584071</v>
       </c>
       <c r="M55">
-        <v>51.83778233532246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>35.90109864166292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>1.000860095024109</v>
+        <v>0.99983012676239</v>
       </c>
       <c r="C56">
-        <v>1.001244902610779</v>
+        <v>0.99983012676239</v>
       </c>
       <c r="D56">
-        <v>1.000534057617188</v>
+        <v>0.9987601041793824</v>
       </c>
       <c r="E56">
-        <v>1.000795245170593</v>
+        <v>0.9991194009780884</v>
       </c>
       <c r="F56">
-        <v>681684992</v>
+        <v>2698907648</v>
       </c>
       <c r="G56">
-        <v>1.000778654593221</v>
+        <v>1.000120842601967</v>
       </c>
       <c r="H56">
-        <v>1.000772613286972</v>
+        <v>1.000156852602959</v>
       </c>
       <c r="I56">
-        <v>1.000647081931432</v>
+        <v>1.000309707721075</v>
       </c>
       <c r="L56">
-        <v>49.32634584816665</v>
+        <v>23.95476450983194</v>
       </c>
       <c r="M56">
-        <v>51.63775733955504</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>28.85735010416</v>
+      </c>
+      <c r="N56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>1.000852584838867</v>
+        <v>0.9990142583847046</v>
       </c>
       <c r="C57">
-        <v>1.00139319896698</v>
+        <v>1.000411868095398</v>
       </c>
       <c r="D57">
-        <v>1.000661253929138</v>
+        <v>0.9989420175552368</v>
       </c>
       <c r="E57">
-        <v>1.000886917114258</v>
+        <v>0.9998437166213988</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>7509856256</v>
       </c>
       <c r="G57">
-        <v>1.000788496640588</v>
+        <v>1.000095649331006</v>
       </c>
       <c r="H57">
-        <v>1.000801628828049</v>
+        <v>1.000136211514473</v>
       </c>
       <c r="I57">
-        <v>1.000675243139267</v>
+        <v>1.000286875168482</v>
       </c>
       <c r="L57">
-        <v>53.01306378926223</v>
+        <v>45.82226468917792</v>
       </c>
       <c r="M57">
-        <v>53.7206999870164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>44.67452745059393</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>1.001070380210876</v>
+        <v>1.000091552734375</v>
       </c>
       <c r="C58">
-        <v>1.001331448554993</v>
+        <v>1.00028133392334</v>
       </c>
       <c r="D58">
-        <v>1.000718832015991</v>
+        <v>0.9995989799499512</v>
       </c>
       <c r="E58">
-        <v>1.000974774360657</v>
+        <v>0.9998959302902222</v>
       </c>
       <c r="F58">
-        <v>1144954880</v>
+        <v>1422901248</v>
       </c>
       <c r="G58">
-        <v>1.000805430978776</v>
+        <v>1.000077493054571</v>
       </c>
       <c r="H58">
-        <v>1.000828903913498</v>
+        <v>1.00011440217495</v>
       </c>
       <c r="I58">
-        <v>1.000708854198456</v>
+        <v>1.000268656015396</v>
       </c>
       <c r="L58">
-        <v>56.43074458382539</v>
+        <v>47.05691853214294</v>
       </c>
       <c r="M58">
-        <v>55.69037591485846</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>45.61324114422591</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>1.000953793525696</v>
+        <v>0.999868631362915</v>
       </c>
       <c r="C59">
-        <v>1.001116275787354</v>
+        <v>1.000132918357849</v>
       </c>
       <c r="D59">
-        <v>1.000505566596985</v>
+        <v>0.9996278285980223</v>
       </c>
       <c r="E59">
-        <v>1.000626444816589</v>
+        <v>1.00010359287262</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>44761088</v>
       </c>
       <c r="G59">
-        <v>1.000789159509486</v>
+        <v>1.000079865765303</v>
       </c>
       <c r="H59">
-        <v>1.000836735963821</v>
+        <v>1.000112035870552</v>
       </c>
       <c r="I59">
-        <v>1.000733117262522</v>
+        <v>1.000257156292597</v>
       </c>
       <c r="L59">
-        <v>42.6076038982638</v>
+        <v>51.95574843726627</v>
       </c>
       <c r="M59">
-        <v>47.1264962697994</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>49.2978636748593</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>1.000645995140076</v>
+        <v>0.999924898147583</v>
       </c>
       <c r="C60">
-        <v>1.000890493392944</v>
+        <v>1.000200152397156</v>
       </c>
       <c r="D60">
-        <v>1.000361323356628</v>
+        <v>0.9997004866600036</v>
       </c>
       <c r="E60">
-        <v>1.000615954399109</v>
+        <v>0.9997370839118958</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>1.000773413590361</v>
+        <v>1.000048703778629</v>
       </c>
       <c r="H60">
-        <v>1.000839829444885</v>
+        <v>1.000077396631241</v>
       </c>
       <c r="I60">
-        <v>1.000749218463898</v>
+        <v>1.000228691101074</v>
       </c>
       <c r="L60">
-        <v>42.25689762075083</v>
+        <v>43.89183664482695</v>
       </c>
       <c r="M60">
-        <v>46.89262220249107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>43.67401100737998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>1.000657439231873</v>
+        <v>0.9997882843017578</v>
       </c>
       <c r="C61">
-        <v>1.000844836235046</v>
+        <v>1.000120162963867</v>
       </c>
       <c r="D61">
-        <v>1.000450253486633</v>
+        <v>0.9996028542518616</v>
       </c>
       <c r="E61">
-        <v>1.000691771507263</v>
+        <v>0.9997731447219848</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>1.000765991582807</v>
+        <v>1.000023652955298</v>
       </c>
       <c r="H61">
-        <v>1.00083817243576</v>
+        <v>1.000047236680984</v>
       </c>
       <c r="I61">
-        <v>1.000759327411652</v>
+        <v>1.000195002555847</v>
       </c>
       <c r="L61">
-        <v>45.87890998690091</v>
+        <v>44.83947784885653</v>
       </c>
       <c r="M61">
-        <v>48.86764379829668</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>44.34672754823578</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>1.000727534294128</v>
+        <v>0.999955415725708</v>
       </c>
       <c r="C62">
-        <v>1.000891923904419</v>
+        <v>1.00025749206543</v>
       </c>
       <c r="D62">
-        <v>1.000296473503113</v>
+        <v>0.9996180534362792</v>
       </c>
       <c r="E62">
-        <v>1.00053071975708</v>
+        <v>0.999800145626068</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1.000744603235013</v>
+        <v>1.000003334107186</v>
       </c>
       <c r="H62">
-        <v>1.000831693410873</v>
+        <v>1.000014039874077</v>
       </c>
       <c r="I62">
-        <v>1.000766519705454</v>
+        <v>1.000157501300176</v>
       </c>
       <c r="L62">
-        <v>39.89818646036782</v>
+        <v>45.61323813427678</v>
       </c>
       <c r="M62">
-        <v>45.03620661252517</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>44.87758634325384</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>1.000502824783325</v>
+        <v>0.999908685684204</v>
       </c>
       <c r="C63">
-        <v>1.001210570335388</v>
+        <v>1.000105261802673</v>
       </c>
       <c r="D63">
-        <v>1.000463843345642</v>
+        <v>0.999662220478058</v>
       </c>
       <c r="E63">
-        <v>1.000658631324768</v>
+        <v>0.9999866485595704</v>
       </c>
       <c r="F63">
-        <v>324655104</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>1.000736787606809</v>
+        <v>1.000001817239221</v>
       </c>
       <c r="H63">
-        <v>1.000842487812042</v>
+        <v>0.9999911099672317</v>
       </c>
       <c r="I63">
-        <v>1.000757976373037</v>
+        <v>1.000131549437841</v>
       </c>
       <c r="L63">
-        <v>46.16830285329532</v>
+        <v>50.95886302411353</v>
       </c>
       <c r="M63">
-        <v>48.49048121357539</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>48.52964323031217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>1.000501990318298</v>
+        <v>0.9999415278434752</v>
       </c>
       <c r="C64">
-        <v>1.001160502433777</v>
+        <v>1.000091433525085</v>
       </c>
       <c r="D64">
-        <v>1.000450730323792</v>
+        <v>0.9996801614761353</v>
       </c>
       <c r="E64">
-        <v>1.00066864490509</v>
+        <v>0.9997949600219728</v>
       </c>
       <c r="F64">
-        <v>68564992</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>1.000730592815744</v>
+        <v>0.9999830120376529</v>
       </c>
       <c r="H64">
-        <v>1.000846129655838</v>
+        <v>0.9999531894922257</v>
       </c>
       <c r="I64">
-        <v>1.000758981704712</v>
+        <v>1.000104322036107</v>
       </c>
       <c r="L64">
-        <v>46.65840444691057</v>
+        <v>45.75843123330728</v>
       </c>
       <c r="M64">
-        <v>48.76196063276588</v>
+        <v>45.21393168127959</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2952,34 +2949,34 @@
         <v>77</v>
       </c>
       <c r="B65">
-        <v>1.000555396080017</v>
+        <v>0.9997193813323976</v>
       </c>
       <c r="C65">
-        <v>1.00098729133606</v>
+        <v>1.00027322769165</v>
       </c>
       <c r="D65">
-        <v>1.000356435775757</v>
+        <v>0.999569058418274</v>
       </c>
       <c r="E65">
-        <v>1.000525593757629</v>
+        <v>0.999802827835083</v>
       </c>
       <c r="F65">
-        <v>244785152</v>
+        <v>53264384</v>
       </c>
       <c r="G65">
-        <v>1.000711956537733</v>
+        <v>0.9999666316556011</v>
       </c>
       <c r="H65">
-        <v>1.000832056999207</v>
+        <v>0.999936220049858</v>
       </c>
       <c r="I65">
-        <v>1.000750676790873</v>
+        <v>1.000080678860346</v>
       </c>
       <c r="L65">
-        <v>40.70278844938022</v>
+        <v>46.01283329373702</v>
       </c>
       <c r="M65">
-        <v>45.10468481428329</v>
+        <v>45.37888943874341</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2987,34 +2984,34 @@
         <v>78</v>
       </c>
       <c r="B66">
-        <v>1.000658392906189</v>
+        <v>0.999768614768982</v>
       </c>
       <c r="C66">
-        <v>1.000769019126892</v>
+        <v>1.000350832939148</v>
       </c>
       <c r="D66">
-        <v>1.000160694122314</v>
+        <v>0.999721884727478</v>
       </c>
       <c r="E66">
-        <v>1.000581383705139</v>
+        <v>0.9999343156814576</v>
       </c>
       <c r="F66">
-        <v>912263168</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>1.000700086280225</v>
+        <v>0.9999636938397698</v>
       </c>
       <c r="H66">
-        <v>1.000821030139923</v>
+        <v>0.9999213963747025</v>
       </c>
       <c r="I66">
-        <v>1.000740436712901</v>
+        <v>1.000060313940048</v>
       </c>
       <c r="L66">
-        <v>43.84751518538739</v>
+        <v>50.38767239344578</v>
       </c>
       <c r="M66">
-        <v>46.78113799461027</v>
+        <v>48.18665289792525</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3022,34 +3019,34 @@
         <v>79</v>
       </c>
       <c r="B67">
-        <v>1.00060510635376</v>
+        <v>0.9999391436576844</v>
       </c>
       <c r="C67">
-        <v>1.001126646995544</v>
+        <v>1.000422716140747</v>
       </c>
       <c r="D67">
-        <v>1.000392913818359</v>
+        <v>0.9997225403785706</v>
       </c>
       <c r="E67">
-        <v>1.00056517124176</v>
+        <v>1.000160694122314</v>
       </c>
       <c r="F67">
-        <v>581632000</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1.000687821276728</v>
+        <v>0.9999816029563647</v>
       </c>
       <c r="H67">
-        <v>1.00080001950264</v>
+        <v>0.9999132663011551</v>
       </c>
       <c r="I67">
-        <v>1.000749055544535</v>
+        <v>1.000057119131088</v>
       </c>
       <c r="L67">
-        <v>43.10025125223385</v>
+        <v>57.11816545080813</v>
       </c>
       <c r="M67">
-        <v>46.3382706011461</v>
+        <v>52.69522584496126</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3057,34 +3054,34 @@
         <v>80</v>
       </c>
       <c r="B68">
-        <v>1.000588178634644</v>
+        <v>1.000182747840881</v>
       </c>
       <c r="C68">
-        <v>1.001139998435974</v>
+        <v>1.000283718109131</v>
       </c>
       <c r="D68">
-        <v>1.00042450428009</v>
+        <v>0.9994891881942748</v>
       </c>
       <c r="E68">
-        <v>1.000528693199157</v>
+        <v>0.9996836185455322</v>
       </c>
       <c r="F68">
-        <v>1979547648</v>
+        <v>233086976</v>
       </c>
       <c r="G68">
-        <v>1.000673355087858</v>
+        <v>0.999954513464471</v>
       </c>
       <c r="H68">
-        <v>1.000778448581696</v>
+        <v>0.9998733907938003</v>
       </c>
       <c r="I68">
-        <v>1.000752369562785</v>
+        <v>1.00003550251325</v>
       </c>
       <c r="L68">
-        <v>41.31786451438278</v>
+        <v>43.21783979339482</v>
       </c>
       <c r="M68">
-        <v>45.29916351172422</v>
+        <v>44.00491281392659</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3092,34 +3089,34 @@
         <v>81</v>
       </c>
       <c r="B69">
-        <v>1.000714063644409</v>
+        <v>0.9996891617774964</v>
       </c>
       <c r="C69">
-        <v>1.000953674316406</v>
+        <v>1.000057935714722</v>
       </c>
       <c r="D69">
-        <v>1.000295400619507</v>
+        <v>0.9992830157279968</v>
       </c>
       <c r="E69">
-        <v>1.000442504882812</v>
+        <v>0.9994309544563292</v>
       </c>
       <c r="F69">
-        <v>5041833984</v>
+        <v>4533463040</v>
       </c>
       <c r="G69">
-        <v>1.000652368705581</v>
+        <v>0.9999069171910034</v>
       </c>
       <c r="H69">
-        <v>1.000737202167511</v>
+        <v>0.9998560875654221</v>
       </c>
       <c r="I69">
-        <v>1.000751459598541</v>
+        <v>1.000011503696442</v>
       </c>
       <c r="L69">
-        <v>37.22585856551186</v>
+        <v>37.74493089943307</v>
       </c>
       <c r="M69">
-        <v>42.85397070745983</v>
+        <v>40.2216616174086</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3127,34 +3124,34 @@
         <v>82</v>
       </c>
       <c r="B70">
-        <v>1.000474452972412</v>
+        <v>0.9994924664497375</v>
       </c>
       <c r="C70">
-        <v>1.000919699668884</v>
+        <v>1.000071406364441</v>
       </c>
       <c r="D70">
-        <v>1.000160455703735</v>
+        <v>0.99927419424057</v>
       </c>
       <c r="E70">
-        <v>1.00044858455658</v>
+        <v>0.9998196363449096</v>
       </c>
       <c r="F70">
-        <v>3404636160</v>
+        <v>1982799872</v>
       </c>
       <c r="G70">
-        <v>1.000633842873853</v>
+        <v>0.9998989825686312</v>
       </c>
       <c r="H70">
-        <v>1.000703072547913</v>
+        <v>0.9998507261276245</v>
       </c>
       <c r="I70">
-        <v>1.000747942924499</v>
+        <v>0.9999911626180013</v>
       </c>
       <c r="L70">
-        <v>37.71537093761769</v>
+        <v>48.93603642884113</v>
       </c>
       <c r="M70">
-        <v>43.08734249567141</v>
+        <v>47.67436726844381</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3162,34 +3159,34 @@
         <v>83</v>
       </c>
       <c r="B71">
-        <v>1.000331401824951</v>
+        <v>0.9997881054878236</v>
       </c>
       <c r="C71">
-        <v>1.001379489898682</v>
+        <v>1.000136137008667</v>
       </c>
       <c r="D71">
-        <v>1.000219345092773</v>
+        <v>0.999470591545105</v>
       </c>
       <c r="E71">
-        <v>1.000591039657593</v>
+        <v>0.9995602369308472</v>
       </c>
       <c r="F71">
-        <v>1543041024</v>
+        <v>804503552</v>
       </c>
       <c r="G71">
-        <v>1.000629951672375</v>
+        <v>0.9998681875106508</v>
       </c>
       <c r="H71">
-        <v>1.000684726238251</v>
+        <v>0.9998259246349335</v>
       </c>
       <c r="I71">
-        <v>1.000743480523427</v>
+        <v>0.9999639590581259</v>
       </c>
       <c r="L71">
-        <v>48.33541032391923</v>
+        <v>43.11672917154118</v>
       </c>
       <c r="M71">
-        <v>48.40424480237434</v>
+        <v>43.75383009857488</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3197,34 +3194,34 @@
         <v>84</v>
       </c>
       <c r="B72">
-        <v>1.000542044639587</v>
+        <v>0.9996962547302246</v>
       </c>
       <c r="C72">
-        <v>1.001242876052856</v>
+        <v>1.000349998474121</v>
       </c>
       <c r="D72">
-        <v>1.000494599342346</v>
+        <v>0.9992046356201172</v>
       </c>
       <c r="E72">
-        <v>1.000783801078796</v>
+        <v>0.9994423985481262</v>
       </c>
       <c r="F72">
-        <v>7214301184</v>
+        <v>1128275968</v>
       </c>
       <c r="G72">
-        <v>1.00064393798205</v>
+        <v>0.9998294794231485</v>
       </c>
       <c r="H72">
-        <v>1.00066967010498</v>
+        <v>0.999788561463356</v>
       </c>
       <c r="I72">
-        <v>1.00074759721756</v>
+        <v>0.9999299029509227</v>
       </c>
       <c r="L72">
-        <v>58.98207486195173</v>
+        <v>40.64650690756808</v>
       </c>
       <c r="M72">
-        <v>54.58668367378418</v>
+        <v>42.06163941460466</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3232,34 +3229,34 @@
         <v>85</v>
       </c>
       <c r="B73">
-        <v>1.000672459602356</v>
+        <v>0.9996610879898072</v>
       </c>
       <c r="C73">
-        <v>1.001232147216797</v>
+        <v>1.000099658966064</v>
       </c>
       <c r="D73">
-        <v>1.000409722328186</v>
+        <v>0.9993277788162231</v>
       </c>
       <c r="E73">
-        <v>1.000925183296204</v>
+        <v>0.9994189739227296</v>
       </c>
       <c r="F73">
-        <v>10380804096</v>
+        <v>3987738624</v>
       </c>
       <c r="G73">
-        <v>1.000669505737882</v>
+        <v>0.9997921607412922</v>
       </c>
       <c r="H73">
-        <v>1.000666743516922</v>
+        <v>0.9997517079114914</v>
       </c>
       <c r="I73">
-        <v>1.00076367855072</v>
+        <v>0.9998956938584646</v>
       </c>
       <c r="L73">
-        <v>64.94310391587582</v>
+        <v>40.13231780291498</v>
       </c>
       <c r="M73">
-        <v>58.51326392918068</v>
+        <v>41.71624997922788</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3267,34 +3264,34 @@
         <v>86</v>
       </c>
       <c r="B74">
-        <v>1.000795483589172</v>
+        <v>0.9994060397148132</v>
       </c>
       <c r="C74">
-        <v>1.001030564308167</v>
+        <v>1.000002980232239</v>
       </c>
       <c r="D74">
-        <v>1.000557899475098</v>
+        <v>0.9991360902786256</v>
       </c>
       <c r="E74">
-        <v>1.000765204429626</v>
+        <v>0.999364972114563</v>
       </c>
       <c r="F74">
-        <v>2898419712</v>
+        <v>2187235328</v>
       </c>
       <c r="G74">
-        <v>1.00067820561895</v>
+        <v>0.9997533254115896</v>
       </c>
       <c r="H74">
-        <v>1.000670498609543</v>
+        <v>0.9997163981199264</v>
       </c>
       <c r="I74">
-        <v>1.000769325097402</v>
+        <v>0.9998560806115468</v>
       </c>
       <c r="L74">
-        <v>54.80438253004493</v>
+        <v>38.85745865593877</v>
       </c>
       <c r="M74">
-        <v>52.93584087890174</v>
+        <v>40.88279195721961</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3302,34 +3299,34 @@
         <v>87</v>
       </c>
       <c r="B75">
-        <v>1.000842571258545</v>
+        <v>0.9992985129356384</v>
       </c>
       <c r="C75">
-        <v>1.000980138778686</v>
+        <v>0.9998013973236084</v>
       </c>
       <c r="D75">
-        <v>1.0001620054245</v>
+        <v>0.9990755319595336</v>
       </c>
       <c r="E75">
-        <v>1.000611782073975</v>
+        <v>0.9995775818824768</v>
       </c>
       <c r="F75">
-        <v>841371648</v>
+        <v>33435648</v>
       </c>
       <c r="G75">
-        <v>1.000672167114861</v>
+        <v>0.9997373487271247</v>
       </c>
       <c r="H75">
-        <v>1.000660902261734</v>
+        <v>0.9997125416994095</v>
       </c>
       <c r="I75">
-        <v>1.000762816270192</v>
+        <v>0.9998372594515482</v>
       </c>
       <c r="L75">
-        <v>46.90414849821168</v>
+        <v>46.39912439819241</v>
       </c>
       <c r="M75">
-        <v>48.19165378596977</v>
+        <v>45.49956017801698</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3337,34 +3334,34 @@
         <v>88</v>
       </c>
       <c r="B76">
-        <v>1.000692486763</v>
+        <v>0.99944269657135</v>
       </c>
       <c r="C76">
-        <v>1.000816345214844</v>
+        <v>0.9999175667762756</v>
       </c>
       <c r="D76">
-        <v>1.000210285186768</v>
+        <v>0.9990570545196532</v>
       </c>
       <c r="E76">
-        <v>1.00051212310791</v>
+        <v>0.9991612434387208</v>
       </c>
       <c r="F76">
-        <v>89018368</v>
+        <v>65814528</v>
       </c>
       <c r="G76">
-        <v>1.000657617659684</v>
+        <v>0.999684975519088</v>
       </c>
       <c r="H76">
-        <v>1.0006467461586</v>
+        <v>0.9997146338224411</v>
       </c>
       <c r="I76">
-        <v>1.000753156344096</v>
+        <v>0.9998016079266866</v>
       </c>
       <c r="L76">
-        <v>42.43402847432472</v>
+        <v>36.48500710412056</v>
       </c>
       <c r="M76">
-        <v>45.34858020404063</v>
+        <v>39.06574918337654</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3372,34 +3369,34 @@
         <v>89</v>
       </c>
       <c r="B77">
-        <v>1.000503063201904</v>
+        <v>0.9992337822914124</v>
       </c>
       <c r="C77">
-        <v>1.000776886940002</v>
+        <v>0.9996174573898317</v>
       </c>
       <c r="D77">
-        <v>1.000208497047424</v>
+        <v>0.9988313913345336</v>
       </c>
       <c r="E77">
-        <v>1.000545263290405</v>
+        <v>0.9991304874420166</v>
       </c>
       <c r="F77">
-        <v>764600320</v>
+        <v>40869888</v>
       </c>
       <c r="G77">
-        <v>1.000647403626113</v>
+        <v>0.9996345675120815</v>
       </c>
       <c r="H77">
-        <v>1.000629663467407</v>
+        <v>0.999678972363472</v>
       </c>
       <c r="I77">
-        <v>1.000738485654195</v>
+        <v>0.9997618476549784</v>
       </c>
       <c r="L77">
-        <v>44.41578565501113</v>
+        <v>35.84843114149968</v>
       </c>
       <c r="M77">
-        <v>46.47931596357808</v>
+        <v>38.63117196262617</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3407,34 +3404,34 @@
         <v>90</v>
       </c>
       <c r="B78">
-        <v>1.000625371932983</v>
+        <v>0.9989910125732422</v>
       </c>
       <c r="C78">
-        <v>1.000928282737732</v>
+        <v>0.9996113181114196</v>
       </c>
       <c r="D78">
-        <v>1.000236749649048</v>
+        <v>0.9986889362335204</v>
       </c>
       <c r="E78">
-        <v>1.000256538391113</v>
+        <v>0.9990939497947692</v>
       </c>
       <c r="F78">
-        <v>1785360384</v>
+        <v>745439232</v>
       </c>
       <c r="G78">
-        <v>1.000611870422931</v>
+        <v>0.9995854204468712</v>
       </c>
       <c r="H78">
-        <v>1.00059375166893</v>
+        <v>0.9996388733386994</v>
       </c>
       <c r="I78">
-        <v>1.000715033213297</v>
+        <v>0.9997156083583831</v>
       </c>
       <c r="L78">
-        <v>33.21013443201143</v>
+        <v>35.03155077376197</v>
       </c>
       <c r="M78">
-        <v>38.92343854510501</v>
+        <v>38.08908766514359</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3442,34 +3439,34 @@
         <v>91</v>
       </c>
       <c r="B79">
-        <v>1.000393152236938</v>
+        <v>0.9990928173065186</v>
       </c>
       <c r="C79">
-        <v>1.000725388526917</v>
+        <v>1.000220060348511</v>
       </c>
       <c r="D79">
-        <v>1.000179886817932</v>
+        <v>0.9990212321281432</v>
       </c>
       <c r="E79">
-        <v>1.000332117080688</v>
+        <v>0.9996469020843506</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>3118751744</v>
       </c>
       <c r="G79">
-        <v>1.000586438300909</v>
+        <v>0.9995910096866421</v>
       </c>
       <c r="H79">
-        <v>1.000579035282135</v>
+        <v>0.9996160387992858</v>
       </c>
       <c r="I79">
-        <v>1.000683856010437</v>
+        <v>0.999711271127065</v>
       </c>
       <c r="L79">
-        <v>37.82919725255698</v>
+        <v>53.19143984780739</v>
       </c>
       <c r="M79">
-        <v>41.5997678626458</v>
+        <v>49.61255221708427</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3477,1157 +3474,1160 @@
         <v>92</v>
       </c>
       <c r="B80">
-        <v>1.000301837921143</v>
+        <v>0.9996901750564576</v>
       </c>
       <c r="C80">
-        <v>1.000574231147766</v>
+        <v>1.000325441360474</v>
       </c>
       <c r="D80">
-        <v>0.9994227886199952</v>
+        <v>0.9995043873786926</v>
       </c>
       <c r="E80">
-        <v>1.000150918960571</v>
+        <v>0.9997759461402892</v>
       </c>
       <c r="F80">
-        <v>12053188608</v>
+        <v>1258061824</v>
       </c>
       <c r="G80">
-        <v>1.000546845633606</v>
+        <v>0.999607822091519</v>
       </c>
       <c r="H80">
-        <v>1.000555783510208</v>
+        <v>0.9996179819107056</v>
       </c>
       <c r="I80">
-        <v>1.000651180744171</v>
+        <v>0.999706240495046</v>
       </c>
       <c r="L80">
-        <v>31.88219196817743</v>
+        <v>56.39168235859346</v>
       </c>
       <c r="M80">
-        <v>37.3716572249703</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>51.86429228165125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>1.000234723091126</v>
+        <v>0.9998966455459596</v>
       </c>
       <c r="C81">
-        <v>1.000563502311706</v>
+        <v>1.000431776046753</v>
       </c>
       <c r="D81">
-        <v>0.9997850656509401</v>
+        <v>0.9996234178543092</v>
       </c>
       <c r="E81">
-        <v>1.00042986869812</v>
+        <v>0.9997754693031312</v>
       </c>
       <c r="F81">
-        <v>134168576</v>
+        <v>1439272960</v>
       </c>
       <c r="G81">
-        <v>1.000536211366743</v>
+        <v>0.9996230627471201</v>
       </c>
       <c r="H81">
-        <v>1.000542688369751</v>
+        <v>0.9996180981397629</v>
       </c>
       <c r="I81">
-        <v>1.000633577505748</v>
+        <v>0.9996968805789948</v>
       </c>
       <c r="L81">
-        <v>46.45952855898326</v>
+        <v>56.37565972676992</v>
       </c>
       <c r="M81">
-        <v>46.40300968895471</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>51.85507073230616</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>1.000389933586121</v>
+        <v>0.9998093843460084</v>
       </c>
       <c r="C82">
-        <v>1.000833034515381</v>
+        <v>1.00041139125824</v>
       </c>
       <c r="D82">
-        <v>1.00011944770813</v>
+        <v>0.999617636203766</v>
       </c>
       <c r="E82">
-        <v>1.000376343727112</v>
+        <v>0.9998255372047424</v>
       </c>
       <c r="F82">
-        <v>46940160</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>1.000521677944958</v>
+        <v>0.9996414695159948</v>
       </c>
       <c r="H82">
-        <v>1.000534969568253</v>
+        <v>0.9996193677186966</v>
       </c>
       <c r="I82">
-        <v>1.000609958171844</v>
+        <v>0.999684743086497</v>
       </c>
       <c r="L82">
-        <v>44.40807147162384</v>
+        <v>57.79227704579711</v>
       </c>
       <c r="M82">
-        <v>45.0602729951129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>52.80395881560018</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>1.000711560249329</v>
+        <v>0.9999629259109496</v>
       </c>
       <c r="C83">
-        <v>1.000908255577087</v>
+        <v>1.000234484672546</v>
       </c>
       <c r="D83">
-        <v>1.000150680541992</v>
+        <v>0.9994933009147644</v>
       </c>
       <c r="E83">
-        <v>1.000464081764221</v>
+        <v>0.9996742010116576</v>
       </c>
       <c r="F83">
-        <v>1701478400</v>
+        <v>181760000</v>
       </c>
       <c r="G83">
-        <v>1.000516441928528</v>
+        <v>0.9996444451065095</v>
       </c>
       <c r="H83">
-        <v>1.000525242090225</v>
+        <v>0.9996037453413009</v>
       </c>
       <c r="I83">
-        <v>1.000592637062073</v>
+        <v>0.9996686816215515</v>
       </c>
       <c r="L83">
-        <v>48.59394328956743</v>
+        <v>52.04528014875176</v>
       </c>
       <c r="M83">
-        <v>47.7302720289667</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>49.62053831177219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>1.00044846534729</v>
+        <v>0.9996188879013062</v>
       </c>
       <c r="C84">
-        <v>1.000873684883118</v>
+        <v>0.9999018311500548</v>
       </c>
       <c r="D84">
-        <v>1.00013279914856</v>
+        <v>0.9991427063941956</v>
       </c>
       <c r="E84">
-        <v>1.000445246696472</v>
+        <v>0.9994324445724488</v>
       </c>
       <c r="F84">
-        <v>2690072576</v>
+        <v>700829696</v>
       </c>
       <c r="G84">
-        <v>1.000509969634704</v>
+        <v>0.9996251723306858</v>
       </c>
       <c r="H84">
-        <v>1.000514072179794</v>
+        <v>0.9995856195688247</v>
       </c>
       <c r="I84">
-        <v>1.000584475199382</v>
+        <v>0.9996473908424377</v>
       </c>
       <c r="L84">
-        <v>47.72605953641663</v>
+        <v>44.15428493124074</v>
       </c>
       <c r="M84">
-        <v>47.19996155111097</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>44.95768849075699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>1.000255942344666</v>
+        <v>0.9994518756866456</v>
       </c>
       <c r="C85">
-        <v>1.001078367233276</v>
+        <v>1.000049233436584</v>
       </c>
       <c r="D85">
-        <v>1.000170707702637</v>
+        <v>0.999178946018219</v>
       </c>
       <c r="E85">
-        <v>1.000553369522095</v>
+        <v>0.999445915222168</v>
       </c>
       <c r="F85">
-        <v>6662266880</v>
+        <v>789221376</v>
       </c>
       <c r="G85">
-        <v>1.000513915079013</v>
+        <v>0.9996088762299115</v>
       </c>
       <c r="H85">
-        <v>1.000515460968018</v>
+        <v>0.999567773938179</v>
       </c>
       <c r="I85">
-        <v>1.000576130549113</v>
+        <v>0.9996404310067495</v>
       </c>
       <c r="L85">
-        <v>53.13185827921155</v>
+        <v>44.68005419136531</v>
       </c>
       <c r="M85">
-        <v>50.59351825706639</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>45.26631966012276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>1.000616908073425</v>
+        <v>0.9995476603507996</v>
       </c>
       <c r="C86">
-        <v>1.000958800315857</v>
+        <v>0.9997549653053284</v>
       </c>
       <c r="D86">
-        <v>0.9997323751449584</v>
+        <v>0.9988533854484558</v>
       </c>
       <c r="E86">
-        <v>1.000142216682434</v>
+        <v>0.9993100762367249</v>
       </c>
       <c r="F86">
-        <v>12058836992</v>
+        <v>570187776</v>
       </c>
       <c r="G86">
-        <v>1.000480124315687</v>
+        <v>0.9995817125941672</v>
       </c>
       <c r="H86">
-        <v>1.000493502616882</v>
+        <v>0.9995365619659424</v>
       </c>
       <c r="I86">
-        <v>1.000554362932841</v>
+        <v>0.999646786848704</v>
       </c>
       <c r="L86">
-        <v>36.83578436687824</v>
+        <v>40.36847751802905</v>
       </c>
       <c r="M86">
-        <v>40.05175971531607</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>42.66815002240583</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>1.000473499298096</v>
+        <v>0.9993619918823242</v>
       </c>
       <c r="C87">
-        <v>1.000786900520325</v>
+        <v>1.000133633613586</v>
       </c>
       <c r="D87">
-        <v>0.9997722506523132</v>
+        <v>0.9989689588546752</v>
       </c>
       <c r="E87">
-        <v>1.00023078918457</v>
+        <v>0.9992044568061828</v>
       </c>
       <c r="F87">
-        <v>2800590848</v>
+        <v>222797824</v>
       </c>
       <c r="G87">
-        <v>1.000457457485586</v>
+        <v>0.9995474166134413</v>
       </c>
       <c r="H87">
-        <v>1.000476783514023</v>
+        <v>0.9994887501001358</v>
       </c>
       <c r="I87">
-        <v>1.000532492001851</v>
+        <v>0.9996254781881968</v>
       </c>
       <c r="L87">
-        <v>41.20605867118152</v>
+        <v>37.22620997254351</v>
       </c>
       <c r="M87">
-        <v>42.81598315226515</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>40.7114985172575</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>1.000545740127564</v>
+        <v>0.999204158782959</v>
       </c>
       <c r="C88">
-        <v>1.000545740127564</v>
+        <v>0.9997471570968628</v>
       </c>
       <c r="D88">
-        <v>0.9997335076332092</v>
+        <v>0.9988598823547364</v>
       </c>
       <c r="E88">
-        <v>1.000323295593261</v>
+        <v>0.9988653063774108</v>
       </c>
       <c r="F88">
-        <v>3387842560</v>
+        <v>109654016</v>
       </c>
       <c r="G88">
-        <v>1.00044526094992</v>
+        <v>0.9994854065919839</v>
       </c>
       <c r="H88">
-        <v>1.000466513633728</v>
+        <v>0.9994478344917297</v>
       </c>
       <c r="I88">
-        <v>1.000510776042938</v>
+        <v>0.9995911240577697</v>
       </c>
       <c r="L88">
-        <v>45.62635577122528</v>
+        <v>29.05593436942787</v>
       </c>
       <c r="M88">
-        <v>45.63546914268398</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>35.13919561739731</v>
+      </c>
+      <c r="N88" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>1.000352025032044</v>
+        <v>0.99891459941864</v>
       </c>
       <c r="C89">
-        <v>1.000481128692627</v>
+        <v>0.9994735717773438</v>
       </c>
       <c r="D89">
-        <v>0.9995732307434082</v>
+        <v>0.9987431168556212</v>
       </c>
       <c r="E89">
-        <v>1.000481128692627</v>
+        <v>0.998933970928192</v>
       </c>
       <c r="F89">
-        <v>3121184768</v>
+        <v>196759552</v>
       </c>
       <c r="G89">
-        <v>1.000448521653802</v>
+        <v>0.9994352760770937</v>
       </c>
       <c r="H89">
-        <v>1.000468444824219</v>
+        <v>0.9994229853153229</v>
       </c>
       <c r="I89">
-        <v>1.000505932172139</v>
+        <v>0.9995521366596222</v>
       </c>
       <c r="L89">
-        <v>52.48348387632051</v>
+        <v>32.43356107086944</v>
       </c>
       <c r="M89">
-        <v>50.15151356904116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>37.01874539207322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>1.000130772590637</v>
+        <v>0.9989263415336608</v>
       </c>
       <c r="C90">
-        <v>1.001113772392273</v>
+        <v>0.9995553493499756</v>
       </c>
       <c r="D90">
-        <v>0.9992440938949584</v>
+        <v>0.9987550377845764</v>
       </c>
       <c r="E90">
-        <v>0.9997770190238952</v>
+        <v>0.9989314079284668</v>
       </c>
       <c r="F90">
-        <v>10184663040</v>
+        <v>488620032</v>
       </c>
       <c r="G90">
-        <v>1.000387475960175</v>
+        <v>0.999389469881764</v>
       </c>
       <c r="H90">
-        <v>1.000434866547585</v>
+        <v>0.9993785738945007</v>
       </c>
       <c r="I90">
-        <v>1.000477967659632</v>
+        <v>0.9995252807935079</v>
       </c>
       <c r="L90">
-        <v>32.14088606840436</v>
+        <v>32.36884810275256</v>
       </c>
       <c r="M90">
-        <v>35.84584191702269</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>36.97567406424167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>0.9999220967292786</v>
+        <v>0.999090850353241</v>
       </c>
       <c r="C91">
-        <v>1.000155687332153</v>
+        <v>0.9997850656509401</v>
       </c>
       <c r="D91">
-        <v>0.9991078972816468</v>
+        <v>0.9988062977790833</v>
       </c>
       <c r="E91">
-        <v>0.9999268651008606</v>
+        <v>0.9994630217552184</v>
       </c>
       <c r="F91">
-        <v>3721674752</v>
+        <v>189952000</v>
       </c>
       <c r="G91">
-        <v>1.000345602245691</v>
+        <v>0.9993961564157144</v>
       </c>
       <c r="H91">
-        <v>1.000401657819748</v>
+        <v>0.9993737131357193</v>
       </c>
       <c r="I91">
-        <v>1.000452470779419</v>
+        <v>0.9995149433612823</v>
       </c>
       <c r="L91">
-        <v>37.90336578414023</v>
+        <v>53.853748478888</v>
       </c>
       <c r="M91">
-        <v>39.78257645912966</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>49.97654960212884</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>1.000084519386292</v>
+        <v>0.99920916557312</v>
       </c>
       <c r="C92">
-        <v>1.000514507293701</v>
+        <v>0.9995993971824646</v>
       </c>
       <c r="D92">
-        <v>0.9995575547218324</v>
+        <v>0.998285949230194</v>
       </c>
       <c r="E92">
-        <v>1.000056266784668</v>
+        <v>0.9988006949424744</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>5607256064</v>
       </c>
       <c r="G92">
-        <v>1.000319299021962</v>
+        <v>0.9993420235545108</v>
       </c>
       <c r="H92">
-        <v>1.000365281105041</v>
+        <v>0.9993416279554367</v>
       </c>
       <c r="I92">
-        <v>1.000436655680339</v>
+        <v>0.9994816283384959</v>
       </c>
       <c r="L92">
-        <v>42.63584684178905</v>
+        <v>37.26228661597813</v>
       </c>
       <c r="M92">
-        <v>43.03352362668792</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>39.14283441533924</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>1.000290513038635</v>
+        <v>0.9988908767700196</v>
       </c>
       <c r="C93">
-        <v>1.000343441963196</v>
+        <v>0.9997085928916932</v>
       </c>
       <c r="D93">
-        <v>0.9996896386146544</v>
+        <v>0.9980332851409912</v>
       </c>
       <c r="E93">
-        <v>1.000189661979675</v>
+        <v>0.9992057085037231</v>
       </c>
       <c r="F93">
-        <v>5201920</v>
+        <v>2950549504</v>
       </c>
       <c r="G93">
-        <v>1.000307513836299</v>
+        <v>0.9993296312771665</v>
       </c>
       <c r="H93">
-        <v>1.000328505039215</v>
+        <v>0.9993309646844863</v>
       </c>
       <c r="I93">
-        <v>1.000421023368836</v>
+        <v>0.999455597003301</v>
       </c>
       <c r="L93">
-        <v>47.29419609808657</v>
+        <v>48.23376279002797</v>
       </c>
       <c r="M93">
-        <v>46.25469069549933</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>46.74524694322282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>1.000081658363343</v>
+        <v>0.9994077086448668</v>
       </c>
       <c r="C94">
-        <v>1.00034487247467</v>
+        <v>0.9998705983161926</v>
       </c>
       <c r="D94">
-        <v>0.9996302127838136</v>
+        <v>0.9987389445304872</v>
       </c>
       <c r="E94">
-        <v>1.000156044960022</v>
+        <v>0.9988133311271667</v>
       </c>
       <c r="F94">
-        <v>63406080</v>
+        <v>1611169792</v>
       </c>
       <c r="G94">
-        <v>1.000293743938456</v>
+        <v>0.9992826948998937</v>
       </c>
       <c r="H94">
-        <v>1.000298047065735</v>
+        <v>0.9993033826351165</v>
       </c>
       <c r="I94">
-        <v>1.000403936704</v>
+        <v>0.9994228760401408</v>
       </c>
       <c r="L94">
-        <v>46.22984373350369</v>
+        <v>40.51214152676941</v>
       </c>
       <c r="M94">
-        <v>45.55559072952956</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>41.35523990170477</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>1.000164270401001</v>
+        <v>0.9988539814949036</v>
       </c>
       <c r="C95">
-        <v>1.00031566619873</v>
+        <v>0.99944007396698</v>
       </c>
       <c r="D95">
-        <v>0.9991936087608336</v>
+        <v>0.9987280964851381</v>
       </c>
       <c r="E95">
-        <v>1.000071167945862</v>
+        <v>0.9988112449645996</v>
       </c>
       <c r="F95">
-        <v>366010368</v>
+        <v>236175360</v>
       </c>
       <c r="G95">
-        <v>1.000273509757311</v>
+        <v>0.999239835814867</v>
       </c>
       <c r="H95">
-        <v>1.000271016359329</v>
+        <v>0.9992650657892227</v>
       </c>
       <c r="I95">
-        <v>1.000388789176941</v>
+        <v>0.9993898232777914</v>
       </c>
       <c r="L95">
-        <v>43.4522227371066</v>
+        <v>40.47338689513917</v>
       </c>
       <c r="M95">
-        <v>43.75734104683838</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>41.32795485753041</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>0.9999796152114868</v>
+        <v>0.9989607930183412</v>
       </c>
       <c r="C96">
-        <v>1.000401020050049</v>
+        <v>0.9993358850479126</v>
       </c>
       <c r="D96">
-        <v>0.9993900656700134</v>
+        <v>0.9986467957496644</v>
       </c>
       <c r="E96">
-        <v>0.9996547102928162</v>
+        <v>0.9990121722221376</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>87494656</v>
       </c>
       <c r="G96">
-        <v>1.000217255260539</v>
+        <v>0.9992191391246188</v>
       </c>
       <c r="H96">
-        <v>1.000228145718574</v>
+        <v>0.9992576122283936</v>
       </c>
       <c r="I96">
-        <v>1.000357900063197</v>
+        <v>0.9993590851624806</v>
       </c>
       <c r="L96">
-        <v>32.63029111045257</v>
+        <v>46.0640109594499</v>
       </c>
       <c r="M96">
-        <v>36.2055653731486</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>45.08592383006934</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>0.99983012676239</v>
+        <v>0.999078333377838</v>
       </c>
       <c r="C97">
-        <v>0.99983012676239</v>
+        <v>0.9997729659080504</v>
       </c>
       <c r="D97">
-        <v>0.9987601041793824</v>
+        <v>0.99871426820755</v>
       </c>
       <c r="E97">
-        <v>0.9991194009780884</v>
+        <v>0.9990845918655396</v>
       </c>
       <c r="F97">
-        <v>2698907648</v>
+        <v>2018840576</v>
       </c>
       <c r="G97">
-        <v>1.00011745032577</v>
+        <v>0.9992069075556116</v>
       </c>
       <c r="H97">
-        <v>1.000156852602959</v>
+        <v>0.9992553174495697</v>
       </c>
       <c r="I97">
-        <v>1.000309707721075</v>
+        <v>0.9993232150872549</v>
       </c>
       <c r="L97">
-        <v>23.99027590317989</v>
+        <v>48.04264816930475</v>
       </c>
       <c r="M97">
-        <v>29.2239527212036</v>
-      </c>
-      <c r="N97" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>46.41804199886733</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>0.9990142583847046</v>
+        <v>0.9990221261978148</v>
       </c>
       <c r="C98">
-        <v>1.000411868095398</v>
+        <v>0.9999998211860656</v>
       </c>
       <c r="D98">
-        <v>0.9989420175552368</v>
+        <v>0.9984665513038636</v>
       </c>
       <c r="E98">
-        <v>0.9998437166213988</v>
+        <v>0.9989497065544128</v>
       </c>
       <c r="F98">
-        <v>7509856256</v>
+        <v>1830809600</v>
       </c>
       <c r="G98">
-        <v>1.000092565443555</v>
+        <v>0.9991835256464117</v>
       </c>
       <c r="H98">
-        <v>1.000136211514473</v>
+        <v>0.9992481052875519</v>
       </c>
       <c r="I98">
-        <v>1.000286875168482</v>
+        <v>0.9992987513542175</v>
       </c>
       <c r="L98">
-        <v>45.82572947199742</v>
+        <v>44.61329198784796</v>
       </c>
       <c r="M98">
-        <v>44.74887094935449</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>44.26424347320975</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>1.000091552734375</v>
+        <v>0.99887353181839</v>
       </c>
       <c r="C99">
-        <v>1.00028133392334</v>
+        <v>0.9998040795326232</v>
       </c>
       <c r="D99">
-        <v>0.9995989799499512</v>
+        <v>0.99887353181839</v>
       </c>
       <c r="E99">
-        <v>0.9998959302902222</v>
+        <v>0.9992229342460632</v>
       </c>
       <c r="F99">
-        <v>1422901248</v>
+        <v>7950336</v>
       </c>
       <c r="G99">
-        <v>1.000074689520525</v>
+        <v>0.99918710824638</v>
       </c>
       <c r="H99">
-        <v>1.00011440217495</v>
+        <v>0.9992269068956375</v>
       </c>
       <c r="I99">
-        <v>1.000268656015396</v>
+        <v>0.9992918173472086</v>
       </c>
       <c r="L99">
-        <v>47.05909911956056</v>
+        <v>52.3623446390518</v>
       </c>
       <c r="M99">
-        <v>45.67397791607231</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+        <v>49.38722881578447</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>0.999868631362915</v>
+        <v>0.9991574883461</v>
       </c>
       <c r="C100">
-        <v>1.000132918357849</v>
+        <v>0.99992436170578</v>
       </c>
       <c r="D100">
-        <v>0.9996278285980223</v>
+        <v>0.9989821314811708</v>
       </c>
       <c r="E100">
-        <v>1.00010359287262</v>
+        <v>0.999330997467041</v>
       </c>
       <c r="F100">
-        <v>44761088</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>1.000077317097988</v>
+        <v>0.9992001890846219</v>
       </c>
       <c r="H100">
-        <v>1.000112035870552</v>
+        <v>0.9992046594619751</v>
       </c>
       <c r="I100">
-        <v>1.000257156292597</v>
+        <v>0.9992755293846131</v>
       </c>
       <c r="L100">
-        <v>51.95338714395964</v>
+        <v>55.15406466960219</v>
       </c>
       <c r="M100">
-        <v>49.30926025777521</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>51.29404637422643</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>0.999924898147583</v>
+        <v>0.9993220567703248</v>
       </c>
       <c r="C101">
-        <v>1.000200152397156</v>
+        <v>0.9996330738067628</v>
       </c>
       <c r="D101">
-        <v>0.9997004866600036</v>
+        <v>0.9992033839225768</v>
       </c>
       <c r="E101">
-        <v>0.9997370839118958</v>
+        <v>0.999454140663147</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>1.000046386808343</v>
+        <v>0.9992232755917605</v>
       </c>
       <c r="H101">
-        <v>1.000077396631241</v>
+        <v>0.9991885930299759</v>
       </c>
       <c r="I101">
-        <v>1.000228691101074</v>
+        <v>0.9992719928423563</v>
       </c>
       <c r="L101">
-        <v>43.89587802227202</v>
+        <v>58.28784900907704</v>
       </c>
       <c r="M101">
-        <v>43.74542898897099</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>53.4464277897896</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>0.9997882843017578</v>
+        <v>0.999409019947052</v>
       </c>
       <c r="C102">
-        <v>1.000120162963867</v>
+        <v>1.000480771064758</v>
       </c>
       <c r="D102">
-        <v>0.9996028542518616</v>
+        <v>0.999181866645813</v>
       </c>
       <c r="E102">
-        <v>0.9997731447219848</v>
+        <v>0.9993310570716858</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1.000021546618674</v>
+        <v>0.9992330739081173</v>
       </c>
       <c r="H102">
-        <v>1.000047236680984</v>
+        <v>0.9991638690233231</v>
       </c>
       <c r="I102">
-        <v>1.000195002555847</v>
+        <v>0.9992682814598084</v>
       </c>
       <c r="L102">
-        <v>44.84275360987257</v>
+        <v>54.04150009324923</v>
       </c>
       <c r="M102">
-        <v>44.41005490778282</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>51.01954828546842</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>0.999955415725708</v>
+        <v>0.9993894100189208</v>
       </c>
       <c r="C103">
-        <v>1.00025749206543</v>
+        <v>0.9997440576553344</v>
       </c>
       <c r="D103">
-        <v>0.9996180534362792</v>
+        <v>0.9992196559906006</v>
       </c>
       <c r="E103">
-        <v>0.999800145626068</v>
+        <v>0.9993788599967957</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>1.00000141925571</v>
+        <v>0.9992463271889063</v>
       </c>
       <c r="H103">
-        <v>1.000014039874077</v>
+        <v>0.99914910197258</v>
       </c>
       <c r="I103">
-        <v>1.000157501300176</v>
+        <v>0.9992669443289439</v>
       </c>
       <c r="L103">
-        <v>45.61590651691022</v>
+        <v>55.45925753199112</v>
       </c>
       <c r="M103">
-        <v>44.93465137357861</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>51.93244275966352</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>0.999908685684204</v>
+        <v>0.9993558526039124</v>
       </c>
       <c r="C104">
-        <v>1.000105261802673</v>
+        <v>1.000869989395142</v>
       </c>
       <c r="D104">
-        <v>0.999662220478058</v>
+        <v>0.9992253184318542</v>
       </c>
       <c r="E104">
-        <v>0.9999866485595704</v>
+        <v>1.000512957572937</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>1.000000076465152</v>
+        <v>0.9993614754056364</v>
       </c>
       <c r="H104">
-        <v>0.9999911099672317</v>
+        <v>0.9992031276226043</v>
       </c>
       <c r="I104">
-        <v>1.000131549437841</v>
+        <v>0.9993052105108897</v>
       </c>
       <c r="L104">
-        <v>50.95777138353029</v>
+        <v>75.57202998992489</v>
       </c>
       <c r="M104">
-        <v>48.54655083234022</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>67.43805124778427</v>
+      </c>
+      <c r="O104" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>0.9999415278434752</v>
+        <v>1.000620722770691</v>
       </c>
       <c r="C105">
-        <v>1.000091433525085</v>
+        <v>1.000874519348144</v>
       </c>
       <c r="D105">
-        <v>0.9996801614761353</v>
+        <v>0.9990674257278442</v>
       </c>
       <c r="E105">
-        <v>0.9997949600219728</v>
+        <v>0.9993324875831604</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>0.9999814295157716</v>
+        <v>0.9993588401490476</v>
       </c>
       <c r="H105">
-        <v>0.9999531894922257</v>
+        <v>0.999197456240654</v>
       </c>
       <c r="I105">
-        <v>1.000104322036107</v>
+        <v>0.9992970407009125</v>
       </c>
       <c r="L105">
-        <v>45.76050677671647</v>
+        <v>49.43303779789153</v>
       </c>
       <c r="M105">
-        <v>45.26051770646821</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>49.52860766801324</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>0.9997193813323976</v>
+        <v>0.9993762373924256</v>
       </c>
       <c r="C106">
-        <v>1.00027322769165</v>
+        <v>0.999768078327179</v>
       </c>
       <c r="D106">
-        <v>0.999569058418274</v>
+        <v>0.9991557598114014</v>
       </c>
       <c r="E106">
-        <v>0.999802827835083</v>
+        <v>0.9993771314620972</v>
       </c>
       <c r="F106">
-        <v>53264384</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>0.9999651929993453</v>
+        <v>0.9993605029956885</v>
       </c>
       <c r="H106">
-        <v>0.999936220049858</v>
+        <v>0.9992008090019227</v>
       </c>
       <c r="I106">
-        <v>1.000080678860346</v>
+        <v>0.9993042369683584</v>
       </c>
       <c r="L106">
-        <v>46.01475031873871</v>
+        <v>50.16638499574496</v>
       </c>
       <c r="M106">
-        <v>45.42380762234029</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>50.0686675179249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>0.999768614768982</v>
+        <v>0.9993727803230286</v>
       </c>
       <c r="C107">
-        <v>1.000350832939148</v>
+        <v>1.000008821487427</v>
       </c>
       <c r="D107">
-        <v>0.999721884727478</v>
+        <v>0.9992557764053344</v>
       </c>
       <c r="E107">
-        <v>0.9999343156814576</v>
+        <v>0.999376893043518</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0.9999623859704464</v>
+        <v>0.9993619930000366</v>
       </c>
       <c r="H107">
-        <v>0.9999213963747025</v>
+        <v>0.9992094308137893</v>
       </c>
       <c r="I107">
-        <v>1.000060313940048</v>
+        <v>0.9993124504884084</v>
       </c>
       <c r="L107">
-        <v>50.38708271968144</v>
+        <v>50.16201432152176</v>
       </c>
       <c r="M107">
-        <v>48.20458521449867</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>50.06558646775003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>0.9999391436576844</v>
+        <v>0.9992579817771912</v>
       </c>
       <c r="C108">
-        <v>1.000422716140747</v>
+        <v>1.000262975692749</v>
       </c>
       <c r="D108">
-        <v>0.9997225403785706</v>
+        <v>0.999180793762207</v>
       </c>
       <c r="E108">
-        <v>1.000160694122314</v>
+        <v>0.9994398355484008</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.9999804139842525</v>
+        <v>0.9993690695953423</v>
       </c>
       <c r="H108">
-        <v>0.9999132663011551</v>
+        <v>0.9992381572723389</v>
       </c>
       <c r="I108">
-        <v>1.000057119131088</v>
+        <v>0.9993239800135295</v>
       </c>
       <c r="L108">
-        <v>57.11452869571976</v>
+        <v>51.41907956260562</v>
       </c>
       <c r="M108">
-        <v>52.67537583908835</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>50.92418252495426</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>1.000182747840881</v>
+        <v>0.9994303584098816</v>
       </c>
       <c r="C109">
-        <v>1.000283718109131</v>
+        <v>1.000266551971436</v>
       </c>
       <c r="D109">
-        <v>0.9994891881942748</v>
+        <v>0.9992471933364868</v>
       </c>
       <c r="E109">
-        <v>0.9996836185455322</v>
+        <v>0.9994384050369264</v>
       </c>
       <c r="F109">
-        <v>233086976</v>
+        <v>97476608</v>
       </c>
       <c r="G109">
-        <v>0.9999534325807324</v>
+        <v>0.9993753728173045</v>
       </c>
       <c r="H109">
-        <v>0.9998733907938003</v>
+        <v>0.9992633789777756</v>
       </c>
       <c r="I109">
-        <v>1.00003550251325</v>
+        <v>0.9993170301119486</v>
       </c>
       <c r="L109">
-        <v>43.21997485140001</v>
+        <v>51.38594040292038</v>
       </c>
       <c r="M109">
-        <v>44.04671591947825</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>50.90276041335461</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>0.9996891617774964</v>
+        <v>0.9994242191314696</v>
       </c>
       <c r="C110">
-        <v>1.000057935714722</v>
+        <v>0.9998615980148317</v>
       </c>
       <c r="D110">
-        <v>0.9992830157279968</v>
+        <v>0.999356746673584</v>
       </c>
       <c r="E110">
-        <v>0.9994309544563292</v>
+        <v>0.9995420575141908</v>
       </c>
       <c r="F110">
-        <v>4533463040</v>
+        <v>93726720</v>
       </c>
       <c r="G110">
-        <v>0.999905934569423</v>
+        <v>0.9993905259715669</v>
       </c>
       <c r="H110">
-        <v>0.9998560875654221</v>
+        <v>0.9992939114570618</v>
       </c>
       <c r="I110">
-        <v>1.000011503696442</v>
+        <v>0.9993092338244121</v>
       </c>
       <c r="L110">
-        <v>37.74847624053447</v>
+        <v>53.81245514330609</v>
       </c>
       <c r="M110">
-        <v>40.28314503987586</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>52.46317988902923</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>0.9994924664497375</v>
+        <v>0.9995284080505372</v>
       </c>
       <c r="C111">
-        <v>1.000071406364441</v>
+        <v>1.000378727912903</v>
       </c>
       <c r="D111">
-        <v>0.99927419424057</v>
+        <v>0.999228060245514</v>
       </c>
       <c r="E111">
-        <v>0.9998196363449096</v>
+        <v>0.9993239045143129</v>
       </c>
       <c r="F111">
-        <v>1982799872</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>0.9998980892762854</v>
+        <v>0.9993844694754529</v>
       </c>
       <c r="H111">
-        <v>0.9998507261276245</v>
+        <v>0.9992869555950165</v>
       </c>
       <c r="I111">
-        <v>0.9999911626180013</v>
+        <v>0.9992941816647848</v>
       </c>
       <c r="L111">
-        <v>48.93612573487098</v>
+        <v>48.12490831105581</v>
       </c>
       <c r="M111">
-        <v>47.68810158351151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>48.93788334706294</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>0.9997881054878236</v>
+        <v>0.9994531869888306</v>
       </c>
       <c r="C112">
-        <v>1.000136137008667</v>
+        <v>1.000367164611816</v>
       </c>
       <c r="D112">
-        <v>0.999470591545105</v>
+        <v>0.9990675449371338</v>
       </c>
       <c r="E112">
-        <v>0.9995602369308472</v>
+        <v>0.9991436004638672</v>
       </c>
       <c r="F112">
-        <v>804503552</v>
+        <v>2285887488</v>
       </c>
       <c r="G112">
-        <v>0.9998673754267</v>
+        <v>0.9993625722925815</v>
       </c>
       <c r="H112">
-        <v>0.9998259246349335</v>
+        <v>0.9993041008710861</v>
       </c>
       <c r="I112">
-        <v>0.9999639590581259</v>
+        <v>0.9992714504400889</v>
       </c>
       <c r="L112">
-        <v>43.11809939001255</v>
+        <v>43.81866886095714</v>
       </c>
       <c r="M112">
-        <v>43.78582132041669</v>
+        <v>46.17611401166258</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4635,34 +4635,34 @@
         <v>125</v>
       </c>
       <c r="B113">
-        <v>0.9996962547302246</v>
+        <v>0.9991664886474608</v>
       </c>
       <c r="C113">
-        <v>1.000349998474121</v>
+        <v>1.000452518463135</v>
       </c>
       <c r="D113">
-        <v>0.9992046356201172</v>
+        <v>0.9989370703697203</v>
       </c>
       <c r="E113">
-        <v>0.9994423985481262</v>
+        <v>0.9989802241325378</v>
       </c>
       <c r="F113">
-        <v>1128275968</v>
+        <v>3318505472</v>
       </c>
       <c r="G113">
-        <v>0.9998287411650114</v>
+        <v>0.9993278133689412</v>
       </c>
       <c r="H113">
-        <v>0.999788561463356</v>
+        <v>0.9992928266525268</v>
       </c>
       <c r="I113">
-        <v>0.9999299029509227</v>
+        <v>0.9992483178774516</v>
       </c>
       <c r="L113">
-        <v>40.64831547592851</v>
+        <v>40.15586684423678</v>
       </c>
       <c r="M113">
-        <v>42.10044243295697</v>
+        <v>43.76594829419643</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4670,34 +4670,34 @@
         <v>126</v>
       </c>
       <c r="B114">
-        <v>0.9996610879898072</v>
+        <v>0.9990198016166688</v>
       </c>
       <c r="C114">
-        <v>1.000099658966064</v>
+        <v>1.000143647193909</v>
       </c>
       <c r="D114">
-        <v>0.9993277788162231</v>
+        <v>0.998892903327942</v>
       </c>
       <c r="E114">
-        <v>0.9994189739227296</v>
+        <v>0.9990513920783995</v>
       </c>
       <c r="F114">
-        <v>3987738624</v>
+        <v>5042270208</v>
       </c>
       <c r="G114">
-        <v>0.9997914895975313</v>
+        <v>0.9993026841607101</v>
       </c>
       <c r="H114">
-        <v>0.9997517079114914</v>
+        <v>0.9993047297000885</v>
       </c>
       <c r="I114">
-        <v>0.9998956938584646</v>
+        <v>0.99923561612765</v>
       </c>
       <c r="L114">
-        <v>40.13420971833212</v>
+        <v>42.5108508355206</v>
       </c>
       <c r="M114">
-        <v>41.75636412858735</v>
+        <v>45.10995998067851</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4705,34 +4705,34 @@
         <v>127</v>
       </c>
       <c r="B115">
-        <v>0.9994060397148132</v>
+        <v>0.9992067813873292</v>
       </c>
       <c r="C115">
-        <v>1.000002980232239</v>
+        <v>0.999876856803894</v>
       </c>
       <c r="D115">
-        <v>0.9991360902786256</v>
+        <v>0.9987766146659852</v>
       </c>
       <c r="E115">
-        <v>0.999364972114563</v>
+        <v>0.9987820982933044</v>
       </c>
       <c r="F115">
-        <v>2187235328</v>
+        <v>4732321792</v>
       </c>
       <c r="G115">
-        <v>0.9997527152808978</v>
+        <v>0.9992553581727641</v>
       </c>
       <c r="H115">
-        <v>0.9997163981199264</v>
+        <v>0.9993032723665237</v>
       </c>
       <c r="I115">
-        <v>0.9998560806115468</v>
+        <v>0.9992134888966878</v>
       </c>
       <c r="L115">
-        <v>38.85954548014142</v>
+        <v>36.41131045864407</v>
       </c>
       <c r="M115">
-        <v>40.9259593705555</v>
+        <v>41.10645580457441</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4740,34 +4740,34 @@
         <v>128</v>
       </c>
       <c r="B116">
-        <v>0.9992985129356384</v>
+        <v>0.9987699389457704</v>
       </c>
       <c r="C116">
-        <v>0.9998013973236084</v>
+        <v>0.9999037384986876</v>
       </c>
       <c r="D116">
-        <v>0.9990755319595336</v>
+        <v>0.9986155033111572</v>
       </c>
       <c r="E116">
-        <v>0.9995775818824768</v>
+        <v>0.9991498589515686</v>
       </c>
       <c r="F116">
-        <v>33435648</v>
+        <v>7641214976</v>
       </c>
       <c r="G116">
-        <v>0.9997367940628595</v>
+        <v>0.9992457673344736</v>
       </c>
       <c r="H116">
-        <v>0.9997125416994095</v>
+        <v>0.9993101567029953</v>
       </c>
       <c r="I116">
-        <v>0.9998372594515482</v>
+        <v>0.999208148320516</v>
       </c>
       <c r="L116">
-        <v>46.39963142153459</v>
+        <v>47.89687929952983</v>
       </c>
       <c r="M116">
-        <v>45.51969773386928</v>
+        <v>47.90599127011749</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -4775,34 +4775,34 @@
         <v>129</v>
       </c>
       <c r="B117">
-        <v>0.99944269657135</v>
+        <v>0.9990725517272948</v>
       </c>
       <c r="C117">
-        <v>0.9999175667762756</v>
+        <v>1.000041604042053</v>
       </c>
       <c r="D117">
-        <v>0.9990570545196532</v>
+        <v>0.9986502528190612</v>
       </c>
       <c r="E117">
-        <v>0.9991612434387208</v>
+        <v>0.9987653493881226</v>
       </c>
       <c r="F117">
-        <v>65814528</v>
+        <v>4529098752</v>
       </c>
       <c r="G117">
-        <v>0.9996844712788469</v>
+        <v>0.9992020929757144</v>
       </c>
       <c r="H117">
-        <v>0.9997146338224411</v>
+        <v>0.9992941945791245</v>
       </c>
       <c r="I117">
-        <v>0.9998016079266866</v>
+        <v>0.9991935114065806</v>
       </c>
       <c r="L117">
-        <v>36.48677285977017</v>
+        <v>39.50404575022038</v>
       </c>
       <c r="M117">
-        <v>39.10660299210321</v>
+        <v>42.39474137014179</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4810,34 +4810,34 @@
         <v>130</v>
       </c>
       <c r="B118">
-        <v>0.9992337822914124</v>
+        <v>0.998803973197937</v>
       </c>
       <c r="C118">
-        <v>0.9996174573898317</v>
+        <v>0.9994123578071594</v>
       </c>
       <c r="D118">
-        <v>0.9988313913345336</v>
+        <v>0.9986244440078736</v>
       </c>
       <c r="E118">
-        <v>0.9991304874420166</v>
+        <v>0.9990435242652892</v>
       </c>
       <c r="F118">
-        <v>40869888</v>
+        <v>526041088</v>
       </c>
       <c r="G118">
-        <v>0.9996341091118623</v>
+        <v>0.999187677638403</v>
       </c>
       <c r="H118">
-        <v>0.999678972363472</v>
+        <v>0.9992988854646683</v>
       </c>
       <c r="I118">
-        <v>0.9997618476549784</v>
+        <v>0.9991994520028432</v>
       </c>
       <c r="L118">
-        <v>35.85025233900016</v>
+        <v>47.0548141642488</v>
       </c>
       <c r="M118">
-        <v>38.67314624614144</v>
+        <v>47.13321647787743</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -4845,34 +4845,34 @@
         <v>131</v>
       </c>
       <c r="B119">
-        <v>0.9989910125732422</v>
+        <v>0.9990434646606444</v>
       </c>
       <c r="C119">
-        <v>0.9996113181114196</v>
+        <v>0.9996885061264038</v>
       </c>
       <c r="D119">
-        <v>0.9986889362335204</v>
+        <v>0.9989003539085388</v>
       </c>
       <c r="E119">
-        <v>0.9990939497947692</v>
+        <v>0.9989787936210632</v>
       </c>
       <c r="F119">
-        <v>745439232</v>
+        <v>431300608</v>
       </c>
       <c r="G119">
-        <v>0.9995850037193993</v>
+        <v>0.9991686881822812</v>
       </c>
       <c r="H119">
-        <v>0.9996388733386994</v>
+        <v>0.9992866784334182</v>
       </c>
       <c r="I119">
-        <v>0.9997156083583831</v>
+        <v>0.9992009460926056</v>
       </c>
       <c r="L119">
-        <v>35.03343862966395</v>
+        <v>45.56596753486518</v>
       </c>
       <c r="M119">
-        <v>38.13241011997852</v>
+        <v>46.18125599478719</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -4880,34 +4880,34 @@
         <v>132</v>
       </c>
       <c r="B120">
-        <v>0.9990928173065186</v>
+        <v>0.9989206194877625</v>
       </c>
       <c r="C120">
-        <v>1.000220060348511</v>
+        <v>1.000014662742615</v>
       </c>
       <c r="D120">
-        <v>0.9990212321281432</v>
+        <v>0.9988493323326112</v>
       </c>
       <c r="E120">
-        <v>0.9996469020843506</v>
+        <v>0.9990484714508056</v>
       </c>
       <c r="F120">
-        <v>3118751744</v>
+        <v>5245165568</v>
       </c>
       <c r="G120">
-        <v>0.9995906308434857</v>
+        <v>0.9991577593885107</v>
       </c>
       <c r="H120">
-        <v>0.9996160387992858</v>
+        <v>0.9992725521326065</v>
       </c>
       <c r="I120">
-        <v>0.999711271127065</v>
+        <v>0.9992048482100169</v>
       </c>
       <c r="L120">
-        <v>53.19106773282004</v>
+        <v>47.57470861302518</v>
       </c>
       <c r="M120">
-        <v>49.61433368813741</v>
+        <v>47.41249891418751</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -4915,34 +4915,34 @@
         <v>133</v>
       </c>
       <c r="B121">
-        <v>0.9996901750564576</v>
+        <v>0.999137818813324</v>
       </c>
       <c r="C121">
-        <v>1.000325441360474</v>
+        <v>0.9995800852775574</v>
       </c>
       <c r="D121">
-        <v>0.9995043873786926</v>
+        <v>0.9984744787216188</v>
       </c>
       <c r="E121">
-        <v>0.9997759461402892</v>
+        <v>0.9989606142044068</v>
       </c>
       <c r="F121">
-        <v>1258061824</v>
+        <v>3628761088</v>
       </c>
       <c r="G121">
-        <v>0.9996074776886495</v>
+        <v>0.9991398370990466</v>
       </c>
       <c r="H121">
-        <v>0.9996179819107056</v>
+        <v>0.9992478758096695</v>
       </c>
       <c r="I121">
-        <v>0.999706240495046</v>
+        <v>0.9991881012916565</v>
       </c>
       <c r="L121">
-        <v>56.39105127077588</v>
+        <v>45.20820997369869</v>
       </c>
       <c r="M121">
-        <v>51.85973986910694</v>
+        <v>45.98398508487481</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -4950,34 +4950,34 @@
         <v>134</v>
       </c>
       <c r="B122">
-        <v>0.9998966455459596</v>
+        <v>0.9992219805717468</v>
       </c>
       <c r="C122">
-        <v>1.000431776046753</v>
+        <v>0.9999441504478456</v>
       </c>
       <c r="D122">
-        <v>0.9996234178543092</v>
+        <v>0.9988058805465698</v>
       </c>
       <c r="E122">
-        <v>0.9997754693031312</v>
+        <v>0.9991599321365356</v>
       </c>
       <c r="F122">
-        <v>1439272960</v>
+        <v>1453821952</v>
       </c>
       <c r="G122">
-        <v>0.9996227496536024</v>
+        <v>0.9991416639206365</v>
       </c>
       <c r="H122">
-        <v>0.9996180981397629</v>
+        <v>0.999239319562912</v>
       </c>
       <c r="I122">
-        <v>0.9996968805789948</v>
+        <v>0.9992000758647919</v>
       </c>
       <c r="L122">
-        <v>56.37503024180512</v>
+        <v>51.38069665424951</v>
       </c>
       <c r="M122">
-        <v>51.85054473642035</v>
+        <v>49.68755458168847</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -4985,34 +4985,34 @@
         <v>135</v>
       </c>
       <c r="B123">
-        <v>0.9998093843460084</v>
+        <v>0.9994509220123292</v>
       </c>
       <c r="C123">
-        <v>1.00041139125824</v>
+        <v>1.000315308570862</v>
       </c>
       <c r="D123">
-        <v>0.999617636203766</v>
+        <v>0.9989347457885742</v>
       </c>
       <c r="E123">
-        <v>0.9998255372047424</v>
+        <v>0.999312937259674</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>335548416</v>
       </c>
       <c r="G123">
-        <v>0.9996411848855242</v>
+        <v>0.9991572342241853</v>
       </c>
       <c r="H123">
-        <v>0.9996193677186966</v>
+        <v>0.9992360234260559</v>
       </c>
       <c r="I123">
-        <v>0.999684743086497</v>
+        <v>0.9992036501566569</v>
       </c>
       <c r="L123">
-        <v>57.79154622547519</v>
+        <v>55.69137002583147</v>
       </c>
       <c r="M123">
-        <v>52.79693838560997</v>
+        <v>52.38637206672635</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5020,34 +5020,34 @@
         <v>136</v>
       </c>
       <c r="B124">
-        <v>0.9999629259109496</v>
+        <v>0.9993305802345276</v>
       </c>
       <c r="C124">
-        <v>1.000234484672546</v>
+        <v>1.000177621841431</v>
       </c>
       <c r="D124">
-        <v>0.9994933009147644</v>
+        <v>0.9991875290870668</v>
       </c>
       <c r="E124">
-        <v>0.9996742010116576</v>
+        <v>0.9992415308952332</v>
       </c>
       <c r="F124">
-        <v>181760000</v>
+        <v>1208569856</v>
       </c>
       <c r="G124">
-        <v>0.9996441863515363</v>
+        <v>0.9991648975579169</v>
       </c>
       <c r="H124">
-        <v>0.9996037453413009</v>
+        <v>0.9991724520921708</v>
       </c>
       <c r="I124">
-        <v>0.9996686816215515</v>
+        <v>0.9992179234822591</v>
       </c>
       <c r="L124">
-        <v>52.04506689637191</v>
+        <v>53.21424590044273</v>
       </c>
       <c r="M124">
-        <v>49.62208588461252</v>
+        <v>51.01113148877602</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5055,34 +5055,34 @@
         <v>137</v>
       </c>
       <c r="B125">
-        <v>0.9996188879013062</v>
+        <v>0.9994219541549684</v>
       </c>
       <c r="C125">
-        <v>0.9999018311500548</v>
+        <v>1.000052213668823</v>
       </c>
       <c r="D125">
-        <v>0.9991427063941956</v>
+        <v>0.9988766312599182</v>
       </c>
       <c r="E125">
-        <v>0.9994324445724488</v>
+        <v>0.9993325471878052</v>
       </c>
       <c r="F125">
-        <v>700829696</v>
+        <v>808415232</v>
       </c>
       <c r="G125">
-        <v>0.999624937098892</v>
+        <v>0.9991801384333613</v>
       </c>
       <c r="H125">
-        <v>0.9995856195688247</v>
+        <v>0.9991724550724029</v>
       </c>
       <c r="I125">
-        <v>0.9996473908424377</v>
+        <v>0.9992353002230326</v>
       </c>
       <c r="L125">
-        <v>44.15462227112918</v>
+        <v>56.01939413824692</v>
       </c>
       <c r="M125">
-        <v>44.96990382852189</v>
+        <v>52.71505519002739</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5090,34 +5090,34 @@
         <v>138</v>
       </c>
       <c r="B126">
-        <v>0.9994518756866456</v>
+        <v>0.9991903305053712</v>
       </c>
       <c r="C126">
-        <v>1.000049233436584</v>
+        <v>1.000257730484009</v>
       </c>
       <c r="D126">
-        <v>0.999178946018219</v>
+        <v>0.9989952445030212</v>
       </c>
       <c r="E126">
-        <v>0.999445915222168</v>
+        <v>0.9994689226150512</v>
       </c>
       <c r="F126">
-        <v>789221376</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>0.9996086623828261</v>
+        <v>0.9992063915407876</v>
       </c>
       <c r="H126">
-        <v>0.999567773938179</v>
+        <v>0.9991770446300506</v>
       </c>
       <c r="I126">
-        <v>0.9996404310067495</v>
+        <v>0.9992505252361298</v>
       </c>
       <c r="L126">
-        <v>44.68035414933852</v>
+        <v>60.05639588062425</v>
       </c>
       <c r="M126">
-        <v>45.27775497009017</v>
+        <v>55.22787917475493</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -5125,34 +5125,34 @@
         <v>139</v>
       </c>
       <c r="B127">
-        <v>0.9995476603507996</v>
+        <v>0.9994627833366394</v>
       </c>
       <c r="C127">
-        <v>0.9997549653053284</v>
+        <v>1.000110626220703</v>
       </c>
       <c r="D127">
-        <v>0.9988533854484558</v>
+        <v>0.9991881847381592</v>
       </c>
       <c r="E127">
-        <v>0.9993100762367249</v>
+        <v>0.999591052532196</v>
       </c>
       <c r="F127">
-        <v>570187776</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>0.9995815181877259</v>
+        <v>0.9992413607218247</v>
       </c>
       <c r="H127">
-        <v>0.9995365619659424</v>
+        <v>0.9991877526044846</v>
       </c>
       <c r="I127">
-        <v>0.999646786848704</v>
+        <v>0.9992674072583516</v>
       </c>
       <c r="L127">
-        <v>40.36900197307737</v>
+        <v>63.43759640841563</v>
       </c>
       <c r="M127">
-        <v>42.68457855089756</v>
+        <v>57.41066279110761</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5160,1798 +5160,1735 @@
         <v>140</v>
       </c>
       <c r="B128">
-        <v>0.9993619918823242</v>
+        <v>0.9996474981307985</v>
       </c>
       <c r="C128">
-        <v>1.000133633613586</v>
+        <v>1.000325679779053</v>
       </c>
       <c r="D128">
-        <v>0.9989689588546752</v>
+        <v>0.9992836713790894</v>
       </c>
       <c r="E128">
-        <v>0.9992044568061828</v>
+        <v>0.9996248483657836</v>
       </c>
       <c r="F128">
-        <v>222797824</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>0.9995472398803129</v>
+        <v>0.9992762232349118</v>
       </c>
       <c r="H128">
-        <v>0.9994887501001358</v>
+        <v>0.9991970032453537</v>
       </c>
       <c r="I128">
-        <v>0.9996254781881968</v>
+        <v>0.9992899119853973</v>
       </c>
       <c r="L128">
-        <v>37.22686393688558</v>
+        <v>64.37635864730615</v>
       </c>
       <c r="M128">
-        <v>40.73123414164904</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>58.02057217733532</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>0.999204158782959</v>
+        <v>0.9997357726097108</v>
       </c>
       <c r="C129">
-        <v>0.9997471570968628</v>
+        <v>1.000440120697022</v>
       </c>
       <c r="D129">
-        <v>0.9988598823547364</v>
+        <v>0.999225914478302</v>
       </c>
       <c r="E129">
-        <v>0.9988653063774108</v>
+        <v>0.9996923804283142</v>
       </c>
       <c r="F129">
-        <v>109654016</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>0.9994852459255036</v>
+        <v>0.9993140557070394</v>
       </c>
       <c r="H129">
-        <v>0.9994478344917297</v>
+        <v>0.9992097020149231</v>
       </c>
       <c r="I129">
-        <v>0.9995911240577697</v>
+        <v>0.9993055601914723</v>
       </c>
       <c r="L129">
-        <v>29.05679049233634</v>
+        <v>66.3203224422342</v>
       </c>
       <c r="M129">
-        <v>35.1662147476272</v>
-      </c>
-      <c r="N129" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>59.2755924604633</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>0.99891459941864</v>
+        <v>0.9996612071990968</v>
       </c>
       <c r="C130">
-        <v>0.9994735717773438</v>
+        <v>1.000385761260986</v>
       </c>
       <c r="D130">
-        <v>0.9987431168556212</v>
+        <v>0.99949312210083</v>
       </c>
       <c r="E130">
-        <v>0.998933970928192</v>
+        <v>0.9996394515037536</v>
       </c>
       <c r="F130">
-        <v>196759552</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0.9994351300166571</v>
+        <v>0.9993436371431043</v>
       </c>
       <c r="H130">
-        <v>0.9994229853153229</v>
+        <v>0.9992145717144012</v>
       </c>
       <c r="I130">
-        <v>0.9995521366596222</v>
+        <v>0.9993158419926961</v>
       </c>
       <c r="L130">
-        <v>32.43424033260351</v>
+        <v>63.27577387675705</v>
       </c>
       <c r="M130">
-        <v>37.04171404087914</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>57.81666071646143</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>0.9989263415336608</v>
+        <v>0.9998294711112976</v>
       </c>
       <c r="C131">
-        <v>0.9995553493499756</v>
+        <v>1.000203609466553</v>
       </c>
       <c r="D131">
-        <v>0.9987550377845764</v>
+        <v>0.9994261860847472</v>
       </c>
       <c r="E131">
-        <v>0.9989314079284668</v>
+        <v>0.9994630813598632</v>
       </c>
       <c r="F131">
-        <v>488620032</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>0.9993893370995488</v>
+        <v>0.9993544957082641</v>
       </c>
       <c r="H131">
-        <v>0.9993785738945007</v>
+        <v>0.9992215305566787</v>
       </c>
       <c r="I131">
-        <v>0.9995252807935079</v>
+        <v>0.99931614001592</v>
       </c>
       <c r="L131">
-        <v>32.3695286116828</v>
+        <v>53.98532826103911</v>
       </c>
       <c r="M131">
-        <v>36.99869085726667</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>53.1245225389092</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>0.999090850353241</v>
+        <v>0.999308943748474</v>
       </c>
       <c r="C132">
-        <v>0.9997850656509401</v>
+        <v>1.000302314758301</v>
       </c>
       <c r="D132">
-        <v>0.9988062977790833</v>
+        <v>0.9992715716362</v>
       </c>
       <c r="E132">
-        <v>0.9994630217552184</v>
+        <v>0.9994569420814514</v>
       </c>
       <c r="F132">
-        <v>189952000</v>
+        <v>245788672</v>
       </c>
       <c r="G132">
-        <v>0.9993960357046097</v>
+        <v>0.9993638090149174</v>
       </c>
       <c r="H132">
-        <v>0.9993737131357193</v>
+        <v>0.999237197637558</v>
       </c>
       <c r="I132">
-        <v>0.9995149433612823</v>
+        <v>0.9993203361829122</v>
       </c>
       <c r="L132">
-        <v>53.85362326574135</v>
+        <v>53.67670425492985</v>
       </c>
       <c r="M132">
-        <v>49.97689275326026</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>52.96339471388369</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>0.99920916557312</v>
+        <v>0.9995750188827516</v>
       </c>
       <c r="C133">
-        <v>0.9995993971824646</v>
+        <v>1.000361323356628</v>
       </c>
       <c r="D133">
-        <v>0.998285949230194</v>
+        <v>0.9993310570716858</v>
       </c>
       <c r="E133">
-        <v>0.9988006949424744</v>
+        <v>0.9996756911277772</v>
       </c>
       <c r="F133">
-        <v>5607256064</v>
+        <v>170872832</v>
       </c>
       <c r="G133">
-        <v>0.9993419138171429</v>
+        <v>0.9993921619342683</v>
       </c>
       <c r="H133">
-        <v>0.9993416279554367</v>
+        <v>0.9992719709873199</v>
       </c>
       <c r="I133">
-        <v>0.9994816283384959</v>
+        <v>0.9993302305539449</v>
       </c>
       <c r="L133">
-        <v>37.2625149893835</v>
+        <v>62.31298999287529</v>
       </c>
       <c r="M133">
-        <v>39.15481049772225</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>57.86695860142395</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>0.9988908767700196</v>
+        <v>0.9997878074645996</v>
       </c>
       <c r="C134">
-        <v>0.9997085928916932</v>
+        <v>1.000084280967712</v>
       </c>
       <c r="D134">
-        <v>0.9980332851409912</v>
+        <v>0.999197006225586</v>
       </c>
       <c r="E134">
-        <v>0.9992057085037231</v>
+        <v>0.9997878670692444</v>
       </c>
       <c r="F134">
-        <v>2950549504</v>
+        <v>736561152</v>
       </c>
       <c r="G134">
-        <v>0.9993295315159229</v>
+        <v>0.9994281351283569</v>
       </c>
       <c r="H134">
-        <v>0.9993309646844863</v>
+        <v>0.9993087947368622</v>
       </c>
       <c r="I134">
-        <v>0.999455597003301</v>
+        <v>0.9993060608704885</v>
       </c>
       <c r="L134">
-        <v>48.23377934632406</v>
+        <v>65.97280991534161</v>
       </c>
       <c r="M134">
-        <v>46.74853828135104</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>60.16060687257816</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>0.9994077086448668</v>
+        <v>0.9996234178543092</v>
       </c>
       <c r="C135">
-        <v>0.9998705983161926</v>
+        <v>1.000521063804626</v>
       </c>
       <c r="D135">
-        <v>0.9987389445304872</v>
+        <v>0.9992162585258484</v>
       </c>
       <c r="E135">
-        <v>0.9988133311271667</v>
+        <v>0.9995966553688048</v>
       </c>
       <c r="F135">
-        <v>1611169792</v>
+        <v>28467200</v>
       </c>
       <c r="G135">
-        <v>0.9992826042078541</v>
+        <v>0.9994434551502158</v>
       </c>
       <c r="H135">
-        <v>0.9993033826351165</v>
+        <v>0.9993495225906373</v>
       </c>
       <c r="I135">
-        <v>0.9994228760401408</v>
+        <v>0.9993148664633433</v>
       </c>
       <c r="L135">
-        <v>40.51225703511761</v>
+        <v>55.61581822310997</v>
       </c>
       <c r="M135">
-        <v>41.36266241560183</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>54.69485503518197</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>0.9988539814949036</v>
+        <v>0.9995734095573424</v>
       </c>
       <c r="C136">
-        <v>0.99944007396698</v>
+        <v>1.000249147415161</v>
       </c>
       <c r="D136">
-        <v>0.9987280964851381</v>
+        <v>0.9993900656700134</v>
       </c>
       <c r="E136">
-        <v>0.9988112449645996</v>
+        <v>0.999563992023468</v>
       </c>
       <c r="F136">
-        <v>236175360</v>
+        <v>401215488</v>
       </c>
       <c r="G136">
-        <v>0.9992397533675582</v>
+        <v>0.9994544130477842</v>
       </c>
       <c r="H136">
-        <v>0.9992650657892227</v>
+        <v>0.9993702292442321</v>
       </c>
       <c r="I136">
-        <v>0.9993898232777914</v>
+        <v>0.9993210951487224</v>
       </c>
       <c r="L136">
-        <v>40.47350280244403</v>
+        <v>53.98705845851955</v>
       </c>
       <c r="M136">
-        <v>41.33539529548398</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>53.79573753823362</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>0.9989607930183412</v>
+        <v>0.9995132088661194</v>
       </c>
       <c r="C137">
-        <v>0.9993358850479126</v>
+        <v>1.000238180160522</v>
       </c>
       <c r="D137">
-        <v>0.9986467957496644</v>
+        <v>0.9993494749069214</v>
       </c>
       <c r="E137">
-        <v>0.9990121722221376</v>
+        <v>0.9998851418495178</v>
       </c>
       <c r="F137">
-        <v>87494656</v>
+        <v>331984896</v>
       </c>
       <c r="G137">
-        <v>0.9992190641725199</v>
+        <v>0.9994935702115781</v>
       </c>
       <c r="H137">
-        <v>0.9992576122283936</v>
+        <v>0.999426218867302</v>
       </c>
       <c r="I137">
-        <v>0.9993590851624806</v>
+        <v>0.999338036775589</v>
       </c>
       <c r="L137">
-        <v>46.06404939118414</v>
+        <v>65.24532417046871</v>
       </c>
       <c r="M137">
-        <v>45.08994660210359</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>60.64577638659046</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>0.999078333377838</v>
+        <v>0.999669909477234</v>
       </c>
       <c r="C138">
-        <v>0.9997729659080504</v>
+        <v>1.000341534614563</v>
       </c>
       <c r="D138">
-        <v>0.99871426820755</v>
+        <v>0.9991878867149352</v>
       </c>
       <c r="E138">
-        <v>0.9990845918655396</v>
+        <v>0.999451756477356</v>
       </c>
       <c r="F138">
-        <v>2018840576</v>
+        <v>3151038464</v>
       </c>
       <c r="G138">
-        <v>0.9992068394173399</v>
+        <v>0.9994897689630124</v>
       </c>
       <c r="H138">
-        <v>0.9992553174495697</v>
+        <v>0.9994466304779053</v>
       </c>
       <c r="I138">
-        <v>0.9993232150872549</v>
+        <v>0.9993384341398875</v>
       </c>
       <c r="L138">
-        <v>48.04266248821019</v>
+        <v>47.5736691602504</v>
       </c>
       <c r="M138">
-        <v>46.42094984547126</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>49.89541889770038</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>0.9990221261978148</v>
+        <v>0.9997072815895079</v>
       </c>
       <c r="C139">
-        <v>0.9999998211860656</v>
+        <v>1.000279664993286</v>
       </c>
       <c r="D139">
-        <v>0.9984665513038636</v>
+        <v>0.9992808699607848</v>
       </c>
       <c r="E139">
-        <v>0.9989497065544128</v>
+        <v>0.9997187256813048</v>
       </c>
       <c r="F139">
-        <v>1830809600</v>
+        <v>1557475328</v>
       </c>
       <c r="G139">
-        <v>0.9991834637025283</v>
+        <v>0.99951058321013</v>
       </c>
       <c r="H139">
-        <v>0.9992481052875519</v>
+        <v>0.9994836270809173</v>
       </c>
       <c r="I139">
-        <v>0.9992987513542175</v>
+        <v>0.9993477781613668</v>
       </c>
       <c r="L139">
-        <v>44.61334182452769</v>
+        <v>55.85899332541847</v>
       </c>
       <c r="M139">
-        <v>44.26858520124924</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>55.16755237617841</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>0.99887353181839</v>
+        <v>0.9995805621147156</v>
       </c>
       <c r="C140">
-        <v>0.9998040795326232</v>
+        <v>1.000295519828796</v>
       </c>
       <c r="D140">
-        <v>0.99887353181839</v>
+        <v>0.9995036125183104</v>
       </c>
       <c r="E140">
-        <v>0.9992229342460632</v>
+        <v>0.9999184608459472</v>
       </c>
       <c r="F140">
-        <v>7950336</v>
+        <v>3007549440</v>
       </c>
       <c r="G140">
-        <v>0.9991870519337588</v>
+        <v>0.9995476629952043</v>
       </c>
       <c r="H140">
-        <v>0.9992269068956375</v>
+        <v>0.9995271265506744</v>
       </c>
       <c r="I140">
-        <v>0.9992918173472086</v>
+        <v>0.999360324939092</v>
       </c>
       <c r="L140">
-        <v>52.36231648850251</v>
+        <v>61.0411659936444</v>
       </c>
       <c r="M140">
-        <v>49.38778317466592</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>58.67134416759168</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>0.9991574883461</v>
+        <v>0.9998478889465332</v>
       </c>
       <c r="C141">
-        <v>0.99992436170578</v>
+        <v>1.000139236450195</v>
       </c>
       <c r="D141">
-        <v>0.9989821314811708</v>
+        <v>0.999660313129425</v>
       </c>
       <c r="E141">
-        <v>0.999330997467041</v>
+        <v>1.000055432319641</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1447927808</v>
       </c>
       <c r="G141">
-        <v>0.9992001378913299</v>
+        <v>0.9995938238428803</v>
       </c>
       <c r="H141">
-        <v>0.9992046594619751</v>
+        <v>0.9995818674564362</v>
       </c>
       <c r="I141">
-        <v>0.9992755293846131</v>
+        <v>0.9993847091992696</v>
       </c>
       <c r="L141">
-        <v>55.1540140838619</v>
+        <v>64.27672300133143</v>
       </c>
       <c r="M141">
-        <v>51.29336609772214</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>60.92655831643423</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>0.9993220567703248</v>
+        <v>0.9998708367347716</v>
       </c>
       <c r="C142">
-        <v>0.9996330738067628</v>
+        <v>1.000333666801453</v>
       </c>
       <c r="D142">
-        <v>0.9992033839225768</v>
+        <v>0.999776005744934</v>
       </c>
       <c r="E142">
-        <v>0.999454140663147</v>
+        <v>0.9999043941497804</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>619175936</v>
       </c>
       <c r="G142">
-        <v>0.9992232290524041</v>
+        <v>0.9996220575071439</v>
       </c>
       <c r="H142">
-        <v>0.9991885930299759</v>
+        <v>0.9996190905570984</v>
       </c>
       <c r="I142">
-        <v>0.9992719928423563</v>
+        <v>0.9994100689888</v>
       </c>
       <c r="L142">
-        <v>58.28777681144548</v>
+        <v>58.27301322719859</v>
       </c>
       <c r="M142">
-        <v>53.44446799156848</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>57.21875907376042</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>0.999409019947052</v>
+        <v>0.9999306797981262</v>
       </c>
       <c r="C143">
-        <v>1.000480771064758</v>
+        <v>1.000367879867554</v>
       </c>
       <c r="D143">
-        <v>0.999181866645813</v>
+        <v>0.9997450709342957</v>
       </c>
       <c r="E143">
-        <v>0.9993310570716858</v>
+        <v>0.9998555779457092</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1933312</v>
       </c>
       <c r="G143">
-        <v>0.9992330315996115</v>
+        <v>0.9996432866379226</v>
       </c>
       <c r="H143">
-        <v>0.9991638690233231</v>
+        <v>0.9996462225914001</v>
       </c>
       <c r="I143">
-        <v>0.9992682814598084</v>
+        <v>0.9994392474492391</v>
       </c>
       <c r="L143">
-        <v>54.04146474732752</v>
+        <v>56.35893981276185</v>
       </c>
       <c r="M143">
-        <v>51.01908699409059</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>56.03187929981092</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>0.9993894100189208</v>
+        <v>0.9998870491981506</v>
       </c>
       <c r="C144">
-        <v>0.9997440576553344</v>
+        <v>1.000185966491699</v>
       </c>
       <c r="D144">
-        <v>0.9992196559906006</v>
+        <v>0.999696969985962</v>
       </c>
       <c r="E144">
-        <v>0.9993788599967957</v>
+        <v>0.999963402748108</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144">
-        <v>0.9992462887266282</v>
+        <v>0.9996723881024848</v>
       </c>
       <c r="H144">
-        <v>0.99914910197258</v>
+        <v>0.9996823161840439</v>
       </c>
       <c r="I144">
-        <v>0.9992669443289439</v>
+        <v>0.999469647804896</v>
       </c>
       <c r="L144">
-        <v>55.45921305396588</v>
+        <v>59.65214474616956</v>
       </c>
       <c r="M144">
-        <v>51.9314697145126</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
+        <v>58.09930027496971</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>0.9993558526039124</v>
+        <v>0.9999443292617798</v>
       </c>
       <c r="C145">
-        <v>1.000869989395142</v>
+        <v>1.000227332115173</v>
       </c>
       <c r="D145">
-        <v>0.9992253184318542</v>
+        <v>0.9997736215591432</v>
       </c>
       <c r="E145">
-        <v>1.000512957572937</v>
+        <v>1.000064253807068</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>0.999361440439929</v>
+        <v>0.9997080122574469</v>
       </c>
       <c r="H145">
-        <v>0.9992031276226043</v>
+        <v>0.999718901515007</v>
       </c>
       <c r="I145">
-        <v>0.9993052105108897</v>
+        <v>0.9995123863220214</v>
       </c>
       <c r="L145">
-        <v>75.57192606147696</v>
+        <v>62.62021754389831</v>
       </c>
       <c r="M145">
-        <v>67.43140372883811</v>
-      </c>
-      <c r="O145" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+        <v>59.99409259386855</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>1.000620722770691</v>
+        <v>1.000006198883057</v>
       </c>
       <c r="C146">
-        <v>1.000874519348144</v>
+        <v>1.000274777412415</v>
       </c>
       <c r="D146">
-        <v>0.9990674257278442</v>
+        <v>0.9998286366462708</v>
       </c>
       <c r="E146">
-        <v>0.9993324875831604</v>
+        <v>0.9999853372573853</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146">
-        <v>0.9993588083620409</v>
+        <v>0.9997332236210776</v>
       </c>
       <c r="H146">
-        <v>0.999197456240654</v>
+        <v>0.9997447222471237</v>
       </c>
       <c r="I146">
-        <v>0.9992970407009125</v>
+        <v>0.9995402355988821</v>
       </c>
       <c r="L146">
-        <v>49.43303742941619</v>
+        <v>58.81168339549393</v>
       </c>
       <c r="M146">
-        <v>49.52880530510323</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+        <v>57.7917811798873</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>0.9993762373924256</v>
+        <v>1.000012516975403</v>
       </c>
       <c r="C147">
-        <v>0.999768078327179</v>
+        <v>1.000301718711853</v>
       </c>
       <c r="D147">
-        <v>0.9991557598114014</v>
+        <v>0.9998692274093628</v>
       </c>
       <c r="E147">
-        <v>0.9993771314620972</v>
+        <v>1.000057816505432</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147">
-        <v>0.9993604740984097</v>
+        <v>0.9997627320651099</v>
       </c>
       <c r="H147">
-        <v>0.9992008090019227</v>
+        <v>0.9997680604457855</v>
       </c>
       <c r="I147">
-        <v>0.9993042369683584</v>
+        <v>0.9995833178361256</v>
       </c>
       <c r="L147">
-        <v>50.16638276319199</v>
+        <v>61.24695406071742</v>
       </c>
       <c r="M147">
-        <v>50.06871148351584</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
+        <v>59.27057883036169</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>0.9993727803230286</v>
+        <v>1.000119090080261</v>
       </c>
       <c r="C148">
-        <v>1.000008821487427</v>
+        <v>1.000248551368713</v>
       </c>
       <c r="D148">
-        <v>0.9992557764053344</v>
+        <v>0.999798595905304</v>
       </c>
       <c r="E148">
-        <v>0.999376893043518</v>
+        <v>0.9998973608016968</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>552443904</v>
       </c>
       <c r="G148">
-        <v>0.9993619667297831</v>
+        <v>0.9997749710411632</v>
       </c>
       <c r="H148">
-        <v>0.9992094308137893</v>
+        <v>0.9997816860675812</v>
       </c>
       <c r="I148">
-        <v>0.9993124504884084</v>
+        <v>0.9996117790540059</v>
       </c>
       <c r="L148">
-        <v>50.1620121003039</v>
+        <v>53.38569514696093</v>
       </c>
       <c r="M148">
-        <v>50.06563129521997</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
+        <v>54.70141770977376</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>0.9992579817771912</v>
+        <v>0.99978905916214</v>
       </c>
       <c r="C149">
-        <v>1.000262975692749</v>
+        <v>1.000227808952332</v>
       </c>
       <c r="D149">
-        <v>0.999180793762207</v>
+        <v>0.99949848651886</v>
       </c>
       <c r="E149">
-        <v>0.9994398355484008</v>
+        <v>1.000227808952332</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>2168645632</v>
       </c>
       <c r="G149">
-        <v>0.9993690457132938</v>
+        <v>0.9998161381239967</v>
       </c>
       <c r="H149">
-        <v>0.9992381572723389</v>
+        <v>0.999808457493782</v>
       </c>
       <c r="I149">
-        <v>0.9993239800135295</v>
+        <v>0.9996534128983815</v>
       </c>
       <c r="L149">
-        <v>51.41907427404772</v>
+        <v>64.07036483747473</v>
       </c>
       <c r="M149">
-        <v>50.92398978994116</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
+        <v>61.31546810404608</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>0.9994303584098816</v>
+        <v>1.000008463859558</v>
       </c>
       <c r="C150">
-        <v>1.000266551971436</v>
+        <v>1.000227570533752</v>
       </c>
       <c r="D150">
-        <v>0.9992471933364868</v>
+        <v>0.9998024702072144</v>
       </c>
       <c r="E150">
-        <v>0.9994384050369264</v>
+        <v>0.9999903440475464</v>
       </c>
       <c r="F150">
-        <v>97476608</v>
+        <v>891072512</v>
       </c>
       <c r="G150">
-        <v>0.9993753511063513</v>
+        <v>0.9998319750261375</v>
       </c>
       <c r="H150">
-        <v>0.9992633789777756</v>
+        <v>0.9998260021209717</v>
       </c>
       <c r="I150">
-        <v>0.9993170301119486</v>
+        <v>0.9996848086516062</v>
       </c>
       <c r="L150">
-        <v>51.38593520005703</v>
+        <v>54.05384002299345</v>
       </c>
       <c r="M150">
-        <v>50.90257366490853</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
+        <v>55.09045795802948</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>0.9994242191314696</v>
+        <v>1.000007390975952</v>
       </c>
       <c r="C151">
-        <v>0.9998615980148317</v>
+        <v>1.000206470489502</v>
       </c>
       <c r="D151">
-        <v>0.999356746673584</v>
+        <v>0.9997857809066772</v>
       </c>
       <c r="E151">
-        <v>0.9995420575141908</v>
+        <v>0.9999099373817444</v>
       </c>
       <c r="F151">
-        <v>93726720</v>
+        <v>1585858560</v>
       </c>
       <c r="G151">
-        <v>0.9993905062343367</v>
+        <v>0.9998390625130109</v>
       </c>
       <c r="H151">
-        <v>0.9992939114570618</v>
+        <v>0.9998483449220658</v>
       </c>
       <c r="I151">
-        <v>0.9993092338244121</v>
+        <v>0.9997164527575175</v>
       </c>
       <c r="J151">
-        <v>1.000108319123586</v>
+        <v>0.9998724194367726</v>
       </c>
       <c r="L151">
-        <v>53.81244447572335</v>
+        <v>51.01569286416758</v>
       </c>
       <c r="M151">
-        <v>52.46258257571451</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
+        <v>53.12376673421505</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>0.9995284080505372</v>
+        <v>0.9999464750289916</v>
       </c>
       <c r="C152">
-        <v>1.000378727912903</v>
+        <v>1.000221490859985</v>
       </c>
       <c r="D152">
-        <v>0.999228060245514</v>
+        <v>0.9997705221176147</v>
       </c>
       <c r="E152">
-        <v>0.9993239045143129</v>
+        <v>0.999992609024048</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>737789952</v>
       </c>
       <c r="G152">
-        <v>0.9993844515325163</v>
+        <v>0.9998530212867415</v>
       </c>
       <c r="H152">
-        <v>0.9992869555950165</v>
+        <v>0.9998751282691956</v>
       </c>
       <c r="I152">
-        <v>0.9992941816647848</v>
+        <v>0.9997442086537679</v>
       </c>
       <c r="J152">
-        <v>1.000097929526112</v>
+        <v>0.999874011351836</v>
       </c>
       <c r="L152">
-        <v>48.12491077036971</v>
+        <v>54.00590090131494</v>
       </c>
       <c r="M152">
-        <v>48.93820390115187</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
+        <v>54.90624953964859</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>0.9994531869888306</v>
+        <v>0.9999637603759766</v>
       </c>
       <c r="C153">
-        <v>1.000367164611816</v>
+        <v>1.000186681747436</v>
       </c>
       <c r="D153">
-        <v>0.9990675449371338</v>
+        <v>0.9998154640197754</v>
       </c>
       <c r="E153">
-        <v>0.9991436004638672</v>
+        <v>0.999974489212036</v>
       </c>
       <c r="F153">
-        <v>2285887488</v>
+        <v>641331200</v>
       </c>
       <c r="G153">
-        <v>0.9993625559808209</v>
+        <v>0.9998640638254046</v>
       </c>
       <c r="H153">
-        <v>0.9993041008710861</v>
+        <v>0.9998900681734085</v>
       </c>
       <c r="I153">
-        <v>0.9992714504400889</v>
+        <v>0.9997662603855133</v>
       </c>
       <c r="J153">
-        <v>1.000085289406083</v>
+        <v>0.9998753421844215</v>
       </c>
       <c r="L153">
-        <v>43.81867937244501</v>
+        <v>53.2050585984613</v>
       </c>
       <c r="M153">
-        <v>46.17706531770023</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
+        <v>54.41782705963855</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>0.9991664886474608</v>
+        <v>0.999993860721588</v>
       </c>
       <c r="C154">
-        <v>1.000452518463135</v>
+        <v>1.000201106071472</v>
       </c>
       <c r="D154">
-        <v>0.9989370703697203</v>
+        <v>0.9996942281723022</v>
       </c>
       <c r="E154">
-        <v>0.9989802241325378</v>
+        <v>0.999788224697113</v>
       </c>
       <c r="F154">
-        <v>3318505472</v>
+        <v>286291968</v>
       </c>
       <c r="G154">
-        <v>0.9993277985400679</v>
+        <v>0.9998571693591963</v>
       </c>
       <c r="H154">
-        <v>0.9992928266525268</v>
+        <v>0.9998900860548019</v>
       </c>
       <c r="I154">
-        <v>0.9992483178774516</v>
+        <v>0.9997844835122426</v>
       </c>
       <c r="J154">
-        <v>1.000070652779943</v>
+        <v>0.9998741883104175</v>
       </c>
       <c r="L154">
-        <v>40.15588292511489</v>
+        <v>45.41663284826525</v>
       </c>
       <c r="M154">
-        <v>43.76738664347463</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
+        <v>49.53933953663367</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>0.9990198016166688</v>
+        <v>0.9997929930686952</v>
       </c>
       <c r="C155">
-        <v>1.000143647193909</v>
+        <v>1.000146985054016</v>
       </c>
       <c r="D155">
-        <v>0.998892903327942</v>
+        <v>0.9996285438537598</v>
       </c>
       <c r="E155">
-        <v>0.9990513920783995</v>
+        <v>0.9999532103538512</v>
       </c>
       <c r="F155">
-        <v>5042270208</v>
+        <v>17876992</v>
       </c>
       <c r="G155">
-        <v>0.9993026706799163</v>
+        <v>0.9998659003587105</v>
       </c>
       <c r="H155">
-        <v>0.9993047297000885</v>
+        <v>0.9999079138040543</v>
       </c>
       <c r="I155">
-        <v>0.99923561612765</v>
+        <v>0.9998051722844442</v>
       </c>
       <c r="J155">
-        <v>1.000057152638201</v>
+        <v>0.9998752349599994</v>
       </c>
       <c r="L155">
-        <v>42.51086230098444</v>
+        <v>52.36512225314264</v>
       </c>
       <c r="M155">
-        <v>45.11107183280104</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
+        <v>53.51456401906076</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>0.9992067813873292</v>
+        <v>1.000003337860107</v>
       </c>
       <c r="C156">
-        <v>0.999876856803894</v>
+        <v>1.000197768211365</v>
       </c>
       <c r="D156">
-        <v>0.9987766146659852</v>
+        <v>0.999653160572052</v>
       </c>
       <c r="E156">
-        <v>0.9987820982933044</v>
+        <v>0.9999290704727172</v>
       </c>
       <c r="F156">
-        <v>4732321792</v>
+        <v>161011712</v>
       </c>
       <c r="G156">
-        <v>0.9992553459174971</v>
+        <v>0.9998716430963475</v>
       </c>
       <c r="H156">
-        <v>0.9993032723665237</v>
+        <v>0.9999261677265168</v>
       </c>
       <c r="I156">
-        <v>0.9992134888966878</v>
+        <v>0.9998205105463663</v>
       </c>
       <c r="J156">
-        <v>1.000040264501182</v>
+        <v>0.9998759480131481</v>
       </c>
       <c r="L156">
-        <v>36.41132911414591</v>
+        <v>51.29037241364307</v>
       </c>
       <c r="M156">
-        <v>41.10826196780101</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
+        <v>52.85842395212178</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>0.9987699389457704</v>
+        <v>0.9998830556869508</v>
       </c>
       <c r="C157">
-        <v>0.9999037384986876</v>
+        <v>1.000243782997131</v>
       </c>
       <c r="D157">
-        <v>0.9986155033111572</v>
+        <v>0.9996208548545836</v>
       </c>
       <c r="E157">
-        <v>0.9991498589515686</v>
+        <v>0.9998412132263184</v>
       </c>
       <c r="F157">
-        <v>7641214976</v>
+        <v>1939030016</v>
       </c>
       <c r="G157">
-        <v>0.9992457561933218</v>
+        <v>0.9998688767445266</v>
       </c>
       <c r="H157">
-        <v>0.9993101567029953</v>
+        <v>0.9999239712953567</v>
       </c>
       <c r="I157">
-        <v>0.999208148320516</v>
+        <v>0.9998288492361704</v>
       </c>
       <c r="J157">
-        <v>1.000028471050194</v>
+        <v>0.9998754879497465</v>
       </c>
       <c r="L157">
-        <v>47.89688095366503</v>
+        <v>47.31431364960173</v>
       </c>
       <c r="M157">
-        <v>47.90639762980813</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
+        <v>50.43471066150909</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>0.9990725517272948</v>
+        <v>0.9998851418495178</v>
       </c>
       <c r="C158">
-        <v>1.000041604042053</v>
+        <v>1.000585675239563</v>
       </c>
       <c r="D158">
-        <v>0.9986502528190612</v>
+        <v>0.9997786283493042</v>
       </c>
       <c r="E158">
-        <v>0.9987653493881226</v>
+        <v>1.000186920166016</v>
       </c>
       <c r="F158">
-        <v>4529098752</v>
+        <v>5663334400</v>
       </c>
       <c r="G158">
-        <v>0.9992020828473945</v>
+        <v>0.9998977897828437</v>
       </c>
       <c r="H158">
-        <v>0.9992941945791245</v>
+        <v>0.9999607294797898</v>
       </c>
       <c r="I158">
-        <v>0.9991935114065806</v>
+        <v>0.9998475849628449</v>
       </c>
       <c r="J158">
-        <v>1.000011740961955</v>
+        <v>0.9998796128797633</v>
       </c>
       <c r="L158">
-        <v>39.5040553301676</v>
+        <v>60.77490128082492</v>
       </c>
       <c r="M158">
-        <v>42.39595551680232</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
+        <v>58.49860646674392</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>0.998803973197937</v>
+        <v>1.000092506408691</v>
       </c>
       <c r="C159">
-        <v>0.9994123578071594</v>
+        <v>1.000290513038635</v>
       </c>
       <c r="D159">
-        <v>0.9986244440078736</v>
+        <v>0.9998897910118104</v>
       </c>
       <c r="E159">
-        <v>0.9990435242652892</v>
+        <v>0.9999983906745912</v>
       </c>
       <c r="F159">
-        <v>526041088</v>
+        <v>811134976</v>
       </c>
       <c r="G159">
-        <v>0.9991876684308395</v>
+        <v>0.9999069353184571</v>
       </c>
       <c r="H159">
-        <v>0.9992988854646683</v>
+        <v>0.999974712729454</v>
       </c>
       <c r="I159">
-        <v>0.9991994520028432</v>
+        <v>0.9998577853043874</v>
       </c>
       <c r="J159">
-        <v>0.9999989168997474</v>
+        <v>0.9998811860955888</v>
       </c>
       <c r="L159">
-        <v>47.0548160796585</v>
+        <v>52.53956117441464</v>
       </c>
       <c r="M159">
-        <v>47.13365648414467</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+        <v>53.39664564577516</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>0.9990434646606444</v>
+        <v>1.000113844871521</v>
       </c>
       <c r="C160">
-        <v>0.9996885061264038</v>
+        <v>1.000323414802551</v>
       </c>
       <c r="D160">
-        <v>0.9989003539085388</v>
+        <v>0.9997478723526</v>
       </c>
       <c r="E160">
-        <v>0.9989787936210632</v>
+        <v>0.9998474717140198</v>
       </c>
       <c r="F160">
-        <v>431300608</v>
+        <v>2119467008</v>
       </c>
       <c r="G160">
-        <v>0.9991686798117689</v>
+        <v>0.9999015295362355</v>
       </c>
       <c r="H160">
-        <v>0.9992866784334182</v>
+        <v>0.9999711632728576</v>
       </c>
       <c r="I160">
-        <v>0.9992009460926056</v>
+        <v>0.9998647193113963</v>
       </c>
       <c r="J160">
-        <v>0.9999854053331424</v>
+        <v>0.9998807395474886</v>
       </c>
       <c r="L160">
-        <v>45.56597062482265</v>
+        <v>46.82536107624178</v>
       </c>
       <c r="M160">
-        <v>46.1818198430976</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13">
+        <v>49.66267499671581</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>0.9989206194877625</v>
+        <v>0.9999048709869384</v>
       </c>
       <c r="C161">
-        <v>1.000014662742615</v>
+        <v>1.00001060962677</v>
       </c>
       <c r="D161">
-        <v>0.9988493323326112</v>
+        <v>0.9996792078018188</v>
       </c>
       <c r="E161">
-        <v>0.9990484714508056</v>
+        <v>0.9998629689216614</v>
       </c>
       <c r="F161">
-        <v>5245165568</v>
+        <v>698773504</v>
       </c>
       <c r="G161">
-        <v>0.9991577517789541</v>
+        <v>0.9998980240258196</v>
       </c>
       <c r="H161">
-        <v>0.9992725521326065</v>
+        <v>0.9999615401029587</v>
       </c>
       <c r="I161">
-        <v>0.9992048482100169</v>
+        <v>0.9998780488967896</v>
       </c>
       <c r="J161">
-        <v>0.9999729956128466</v>
+        <v>0.9998805041749611</v>
       </c>
       <c r="L161">
-        <v>47.57470998399339</v>
+        <v>47.48516242478598</v>
       </c>
       <c r="M161">
-        <v>47.41288212470656</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13">
+        <v>50.04894935661512</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>0.999137818813324</v>
+        <v>0.9997982382774352</v>
       </c>
       <c r="C162">
-        <v>0.9995800852775574</v>
+        <v>1.000029325485229</v>
       </c>
       <c r="D162">
-        <v>0.9984744787216188</v>
+        <v>0.9995973110198976</v>
       </c>
       <c r="E162">
-        <v>0.9989606142044068</v>
+        <v>0.9998997449874878</v>
       </c>
       <c r="F162">
-        <v>3628761088</v>
+        <v>899739648</v>
       </c>
       <c r="G162">
-        <v>0.9991398301812678</v>
+        <v>0.9998981804768803</v>
       </c>
       <c r="H162">
-        <v>0.9992478758096695</v>
+        <v>0.999961307644844</v>
       </c>
       <c r="I162">
-        <v>0.9991881012916565</v>
+        <v>0.9998928089936574</v>
       </c>
       <c r="J162">
-        <v>0.9999595865875693</v>
+        <v>0.9998807590201602</v>
       </c>
       <c r="L162">
-        <v>45.20821307322451</v>
+        <v>49.16900542216867</v>
       </c>
       <c r="M162">
-        <v>45.9845455036297</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13">
+        <v>51.00970360841759</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>0.9992219805717468</v>
+        <v>0.9999272227287292</v>
       </c>
       <c r="C163">
-        <v>0.9999441504478456</v>
+        <v>1.000142931938171</v>
       </c>
       <c r="D163">
-        <v>0.9988058805465698</v>
+        <v>0.9996594786643982</v>
       </c>
       <c r="E163">
-        <v>0.9991599321365356</v>
+        <v>0.9998725652694702</v>
       </c>
       <c r="F163">
-        <v>1453821952</v>
+        <v>2681921536</v>
       </c>
       <c r="G163">
-        <v>0.9991416576317467</v>
+        <v>0.9998958518216612</v>
       </c>
       <c r="H163">
-        <v>0.999239319562912</v>
+        <v>0.9999621570110321</v>
       </c>
       <c r="I163">
-        <v>0.9992000758647919</v>
+        <v>0.9998993714650471</v>
       </c>
       <c r="J163">
-        <v>0.9999489951378868</v>
+        <v>0.9998806504936609</v>
       </c>
       <c r="L163">
-        <v>51.38069524611333</v>
+        <v>47.89222337026959</v>
       </c>
       <c r="M163">
-        <v>49.68762076829572</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13">
+        <v>50.24059647993276</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>0.9994509220123292</v>
+        <v>0.9998574256896972</v>
       </c>
       <c r="C164">
-        <v>1.000315308570862</v>
+        <v>1.000287055969239</v>
       </c>
       <c r="D164">
-        <v>0.9989347457885742</v>
+        <v>0.9997609853744508</v>
       </c>
       <c r="E164">
-        <v>0.999312937259674</v>
+        <v>1.000052690505981</v>
       </c>
       <c r="F164">
-        <v>335548416</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>0.9991572285070127</v>
+        <v>0.9999101098838721</v>
       </c>
       <c r="H164">
-        <v>0.9992360234260559</v>
+        <v>0.9999666213989258</v>
       </c>
       <c r="I164">
-        <v>0.9992036501566569</v>
+        <v>0.9999081989129385</v>
       </c>
       <c r="J164">
-        <v>0.9999405705302284</v>
+        <v>0.9998829291693209</v>
       </c>
       <c r="L164">
-        <v>55.69136609587049</v>
+        <v>56.34405568573695</v>
       </c>
       <c r="M164">
-        <v>52.38612036487327</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13">
+        <v>55.0749349318149</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>0.9993305802345276</v>
+        <v>1.000059962272644</v>
       </c>
       <c r="C165">
-        <v>1.000177621841431</v>
+        <v>1.000275850296021</v>
       </c>
       <c r="D165">
-        <v>0.9991875290870668</v>
+        <v>0.9999035596847534</v>
       </c>
       <c r="E165">
-        <v>0.9992415308952332</v>
+        <v>1.000088930130005</v>
       </c>
       <c r="F165">
-        <v>1208569856</v>
+        <v>1698168832</v>
       </c>
       <c r="G165">
-        <v>0.9991648923604873</v>
+        <v>0.9999263662698842</v>
       </c>
       <c r="H165">
-        <v>0.9991724520921708</v>
+        <v>0.9999678552150726</v>
       </c>
       <c r="I165">
-        <v>0.9992179234822591</v>
+        <v>0.9999246080716451</v>
       </c>
       <c r="J165">
-        <v>0.9999313117271159</v>
+        <v>0.9998856576588664</v>
       </c>
       <c r="L165">
-        <v>53.21424359854289</v>
+        <v>57.89000469052098</v>
       </c>
       <c r="M165">
-        <v>51.01104236730146</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13">
+        <v>56.00111902983795</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>0.9994219541549684</v>
+        <v>1.000074982643127</v>
       </c>
       <c r="C166">
-        <v>1.000052213668823</v>
+        <v>1.000357747077942</v>
       </c>
       <c r="D166">
-        <v>0.9988766312599182</v>
+        <v>0.999578297138214</v>
       </c>
       <c r="E166">
-        <v>0.9993325471878052</v>
+        <v>0.9997709989547729</v>
       </c>
       <c r="F166">
-        <v>808415232</v>
+        <v>953958400</v>
       </c>
       <c r="G166">
-        <v>0.9991801337084253</v>
+        <v>0.9999122419685104</v>
       </c>
       <c r="H166">
-        <v>0.9991724550724029</v>
+        <v>0.999957138299942</v>
       </c>
       <c r="I166">
-        <v>0.9992353002230326</v>
+        <v>0.9999315083026886</v>
       </c>
       <c r="J166">
-        <v>0.9999233810709661</v>
+        <v>0.9998841390005341</v>
       </c>
       <c r="L166">
-        <v>56.01939042733348</v>
+        <v>42.89720527176891</v>
       </c>
       <c r="M166">
-        <v>52.71478263770848</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13">
+        <v>46.87151904091281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>0.9991903305053712</v>
+        <v>0.99970144033432</v>
       </c>
       <c r="C167">
-        <v>1.000257730484009</v>
+        <v>0.999993860721588</v>
       </c>
       <c r="D167">
-        <v>0.9989952445030212</v>
+        <v>0.9994945526123048</v>
       </c>
       <c r="E167">
-        <v>0.9994689226150512</v>
+        <v>0.9995321035385132</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>179425280</v>
       </c>
       <c r="G167">
-        <v>0.9992063872453912</v>
+        <v>0.9998776839294197</v>
       </c>
       <c r="H167">
-        <v>0.9991770446300506</v>
+        <v>0.9999308526515961</v>
       </c>
       <c r="I167">
-        <v>0.9992505252361298</v>
+        <v>0.9999197403589885</v>
       </c>
       <c r="J167">
-        <v>0.9999173617536692</v>
+        <v>0.9998794762791828</v>
       </c>
       <c r="L167">
-        <v>60.05639048830672</v>
+        <v>35.1924933194983</v>
       </c>
       <c r="M167">
-        <v>55.22736064038307</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13">
+        <v>41.40881989404584</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>0.9994627833366394</v>
+        <v>0.9995856285095216</v>
       </c>
       <c r="C168">
-        <v>1.000110626220703</v>
+        <v>1.000082969665527</v>
       </c>
       <c r="D168">
-        <v>0.9991881847381592</v>
+        <v>0.9993023872375488</v>
       </c>
       <c r="E168">
-        <v>0.999591052532196</v>
+        <v>0.9993229508399964</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1754710016</v>
       </c>
       <c r="G168">
-        <v>0.9992413568169188</v>
+        <v>0.999827253648563</v>
       </c>
       <c r="H168">
-        <v>0.9991877526044846</v>
+        <v>0.9999021321535111</v>
       </c>
       <c r="I168">
-        <v>0.9992674072583516</v>
+        <v>0.9999154468377431</v>
       </c>
       <c r="J168">
-        <v>0.9999130397772259</v>
+        <v>0.9998721050813129</v>
       </c>
       <c r="L168">
-        <v>63.43758992235599</v>
+        <v>29.90262459832906</v>
       </c>
       <c r="M168">
-        <v>57.40995430946394</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13">
+        <v>37.30910697164108</v>
+      </c>
+      <c r="N168" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>0.9996474981307985</v>
+        <v>0.9993972778320312</v>
       </c>
       <c r="C169">
-        <v>1.000325679779053</v>
+        <v>0.999913215637207</v>
       </c>
       <c r="D169">
-        <v>0.9992836713790894</v>
+        <v>0.9991110563278198</v>
       </c>
       <c r="E169">
-        <v>0.9996248483657836</v>
+        <v>0.999868869781494</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>1383124992</v>
       </c>
       <c r="G169">
-        <v>0.9992762196849975</v>
+        <v>0.9998310369333748</v>
       </c>
       <c r="H169">
-        <v>0.9991970032453537</v>
+        <v>0.9998841851949691</v>
       </c>
       <c r="I169">
-        <v>0.9992899119853973</v>
+        <v>0.9999204516410828</v>
       </c>
       <c r="J169">
-        <v>0.9999092226724386</v>
+        <v>0.9998720622296597</v>
       </c>
       <c r="L169">
-        <v>64.37635190843115</v>
+        <v>51.36785299403419</v>
       </c>
       <c r="M169">
-        <v>58.01981456402554</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13">
+        <v>50.95752575859821</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>0.9997357726097108</v>
+        <v>0.9997032284736632</v>
       </c>
       <c r="C170">
-        <v>1.000440120697022</v>
+        <v>1.000230669975281</v>
       </c>
       <c r="D170">
-        <v>0.999225914478302</v>
+        <v>0.9996481537818908</v>
       </c>
       <c r="E170">
-        <v>0.9996923804283142</v>
+        <v>0.9997087717056274</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170">
-        <v>0.9993140524798445</v>
+        <v>0.9998199219126706</v>
       </c>
       <c r="H170">
-        <v>0.9992097020149231</v>
+        <v>0.9998701065778732</v>
       </c>
       <c r="I170">
-        <v>0.9993055601914723</v>
+        <v>0.9999134620030721</v>
       </c>
       <c r="J170">
-        <v>0.999906350589735</v>
+        <v>0.999869899441262</v>
       </c>
       <c r="L170">
-        <v>66.32031525010639</v>
+        <v>46.65442310067437</v>
       </c>
       <c r="M170">
-        <v>59.27473916641671</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13">
+        <v>47.679218575901</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B171">
-        <v>0.9996612071990968</v>
-      </c>
-      <c r="C171">
-        <v>1.000385761260986</v>
-      </c>
-      <c r="D171">
-        <v>0.99949312210083</v>
-      </c>
-      <c r="E171">
-        <v>0.9996394515037536</v>
-      </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171">
-        <v>0.9993436342092907</v>
-      </c>
-      <c r="H171">
-        <v>0.9992145717144012</v>
-      </c>
-      <c r="I171">
-        <v>0.9993158419926961</v>
+        <v>0.9998199219126706</v>
       </c>
       <c r="J171">
-        <v>0.9999028155025035</v>
+        <v>0.999869899441262</v>
       </c>
       <c r="L171">
-        <v>63.27576824156635</v>
+        <v>46.65442310067437</v>
       </c>
       <c r="M171">
-        <v>57.81596259093235</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13">
+        <v>47.679218575901</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B172">
-        <v>0.9998294711112976</v>
-      </c>
-      <c r="C172">
-        <v>1.000203609466553</v>
-      </c>
-      <c r="D172">
-        <v>0.9994261860847472</v>
-      </c>
-      <c r="E172">
-        <v>0.9994630813598632</v>
-      </c>
       <c r="F172">
         <v>0</v>
       </c>
       <c r="G172">
-        <v>0.9993544930411609</v>
-      </c>
-      <c r="H172">
-        <v>0.9992215305566787</v>
-      </c>
-      <c r="I172">
-        <v>0.99931614001592</v>
+        <v>0.9998199219126706</v>
       </c>
       <c r="J172">
-        <v>0.9998969912092236</v>
+        <v>0.999869899441262</v>
       </c>
       <c r="L172">
-        <v>53.98532664708812</v>
+        <v>46.65442310067437</v>
       </c>
       <c r="M172">
-        <v>53.12427755502766</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13">
+        <v>47.679218575901</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>0.999308943748474</v>
+        <v>0.9992436170578004</v>
       </c>
       <c r="C173">
-        <v>1.000302314758301</v>
+        <v>0.999725580215454</v>
       </c>
       <c r="D173">
-        <v>0.9992715716362</v>
+        <v>0.998956024646759</v>
       </c>
       <c r="E173">
-        <v>0.9994569420814514</v>
+        <v>0.99944806098938</v>
       </c>
       <c r="F173">
-        <v>245788672</v>
+        <v>4470480896</v>
       </c>
       <c r="G173">
-        <v>0.9993638065902781</v>
-      </c>
-      <c r="H173">
-        <v>0.999237197637558</v>
-      </c>
-      <c r="I173">
-        <v>0.9993203361829122</v>
+        <v>0.9997797834900851</v>
       </c>
       <c r="J173">
-        <v>0.9998911627439552</v>
+        <v>0.9998641632299795</v>
       </c>
       <c r="L173">
-        <v>53.67670275569724</v>
+        <v>46.65442310067437</v>
       </c>
       <c r="M173">
-        <v>52.96316404712897</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13">
+        <v>47.679218575901</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>0.9995750188827516</v>
+        <v>0.9992342591285706</v>
       </c>
       <c r="C174">
-        <v>1.000361323356628</v>
+        <v>0.999540388584137</v>
       </c>
       <c r="D174">
-        <v>0.9993310570716858</v>
+        <v>0.9989065527915956</v>
       </c>
       <c r="E174">
-        <v>0.9996756911277772</v>
+        <v>0.9991204142570496</v>
       </c>
       <c r="F174">
-        <v>170872832</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>0.9993921597300507</v>
-      </c>
-      <c r="H174">
-        <v>0.9992719709873199</v>
-      </c>
-      <c r="I174">
-        <v>0.9993302305539449</v>
+        <v>0.9997198408325365</v>
       </c>
       <c r="J174">
-        <v>0.999888308815264</v>
+        <v>0.9998543122502057</v>
       </c>
       <c r="L174">
-        <v>62.31298637151163</v>
+        <v>35.86599178635714</v>
       </c>
       <c r="M174">
-        <v>57.86638194338453</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13">
+        <v>40.50592887735457</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>0.9997878074645996</v>
+        <v>0.9990022778511048</v>
       </c>
       <c r="C175">
-        <v>1.000084280967712</v>
+        <v>0.9999650716781616</v>
       </c>
       <c r="D175">
-        <v>0.999197006225586</v>
+        <v>0.9989319443702698</v>
       </c>
       <c r="E175">
-        <v>0.9997878670692444</v>
+        <v>0.999653160572052</v>
       </c>
       <c r="F175">
-        <v>736561152</v>
+        <v>159027200</v>
       </c>
       <c r="G175">
-        <v>0.9994281331245227</v>
-      </c>
-      <c r="H175">
-        <v>0.9993087947368622</v>
-      </c>
-      <c r="I175">
-        <v>0.9993060608704885</v>
+        <v>0.9997137789906743</v>
       </c>
       <c r="J175">
-        <v>0.9998869784610122</v>
+        <v>0.9998516479895679</v>
       </c>
       <c r="L175">
-        <v>65.97280572673725</v>
+        <v>54.93018369422663</v>
       </c>
       <c r="M175">
-        <v>60.1598979412827</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13">
+        <v>52.91119775913669</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>0.9996234178543092</v>
+        <v>0.9996678233146667</v>
       </c>
       <c r="C176">
-        <v>1.000521063804626</v>
+        <v>1.000025868415832</v>
       </c>
       <c r="D176">
-        <v>0.9992162585258484</v>
+        <v>0.9994202256202698</v>
       </c>
       <c r="E176">
-        <v>0.9995966553688048</v>
+        <v>0.9998196959495544</v>
       </c>
       <c r="F176">
-        <v>28467200</v>
+        <v>470786048</v>
       </c>
       <c r="G176">
-        <v>0.9994434533285483</v>
-      </c>
-      <c r="H176">
-        <v>0.9993495225906373</v>
-      </c>
-      <c r="I176">
-        <v>0.9993148664633433</v>
+        <v>0.9997234078051179</v>
       </c>
       <c r="J176">
-        <v>0.9998831331220426</v>
+        <v>0.99985122478374</v>
       </c>
       <c r="L176">
-        <v>55.61581688428065</v>
+        <v>59.19572594215875</v>
       </c>
       <c r="M176">
-        <v>54.69456508567007</v>
+        <v>55.9997727333065</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -6959,37 +6896,31 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>0.9995734095573424</v>
+        <v>0.9997775554656982</v>
       </c>
       <c r="C177">
-        <v>1.000249147415161</v>
+        <v>1.000181198120117</v>
       </c>
       <c r="D177">
-        <v>0.9993900656700134</v>
+        <v>0.9995973706245422</v>
       </c>
       <c r="E177">
-        <v>0.999563992023468</v>
+        <v>0.9999108910560608</v>
       </c>
       <c r="F177">
-        <v>401215488</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>0.9994544113917229</v>
-      </c>
-      <c r="H177">
-        <v>0.9993702292442321</v>
-      </c>
-      <c r="I177">
-        <v>0.9993210951487224</v>
+        <v>0.9997404517370218</v>
       </c>
       <c r="J177">
-        <v>0.9998789060876244</v>
+        <v>0.9998520150654926</v>
       </c>
       <c r="L177">
-        <v>53.98705749355393</v>
+        <v>61.44374923802803</v>
       </c>
       <c r="M177">
-        <v>53.79550972416614</v>
+        <v>57.63833604854781</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -6997,37 +6928,31 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>0.9995132088661194</v>
+        <v>0.9998463988304138</v>
       </c>
       <c r="C178">
-        <v>1.000238180160522</v>
+        <v>1.000316381454468</v>
       </c>
       <c r="D178">
-        <v>0.9993494749069214</v>
+        <v>0.9995247721672058</v>
       </c>
       <c r="E178">
-        <v>0.9998851418495178</v>
+        <v>0.9996752738952636</v>
       </c>
       <c r="F178">
-        <v>331984896</v>
+        <v>272482304</v>
       </c>
       <c r="G178">
-        <v>0.9994935687060679</v>
-      </c>
-      <c r="H178">
-        <v>0.999426218867302</v>
-      </c>
-      <c r="I178">
-        <v>0.999338036775589</v>
+        <v>0.9997345264786801</v>
       </c>
       <c r="J178">
-        <v>0.9998789886804973</v>
+        <v>0.9998496741228405</v>
       </c>
       <c r="L178">
-        <v>65.24532169439799</v>
+        <v>52.96263956911366</v>
       </c>
       <c r="M178">
-        <v>60.64521006534</v>
+        <v>52.22678604712058</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7035,37 +6960,31 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>0.999669909477234</v>
+        <v>0.9997188448905944</v>
       </c>
       <c r="C179">
-        <v>1.000341534614563</v>
+        <v>1.00010085105896</v>
       </c>
       <c r="D179">
-        <v>0.9991878867149352</v>
+        <v>0.9993377327919006</v>
       </c>
       <c r="E179">
-        <v>0.999451756477356</v>
+        <v>0.9996434450149536</v>
       </c>
       <c r="F179">
-        <v>3151038464</v>
+        <v>172341248</v>
       </c>
       <c r="G179">
-        <v>0.9994897675943668</v>
-      </c>
-      <c r="H179">
-        <v>0.9994466304779053</v>
-      </c>
-      <c r="I179">
-        <v>0.9993384341398875</v>
+        <v>0.999726246345614</v>
       </c>
       <c r="J179">
-        <v>0.9998733299758199</v>
+        <v>0.9998469426114779</v>
       </c>
       <c r="L179">
-        <v>47.57366935453575</v>
+        <v>51.8744723752804</v>
       </c>
       <c r="M179">
-        <v>49.89543364946876</v>
+        <v>51.52304818785398</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7073,37 +6992,31 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>0.9997072815895079</v>
+        <v>0.9995653033256532</v>
       </c>
       <c r="C180">
-        <v>1.000279664993286</v>
+        <v>0.9999681711196901</v>
       </c>
       <c r="D180">
-        <v>0.9992808699607848</v>
+        <v>0.9992551803588868</v>
       </c>
       <c r="E180">
-        <v>0.9997187256813048</v>
+        <v>0.9994645714759828</v>
       </c>
       <c r="F180">
-        <v>1557475328</v>
+        <v>495769600</v>
       </c>
       <c r="G180">
-        <v>0.9995105819659066</v>
-      </c>
-      <c r="H180">
-        <v>0.9994836270809173</v>
-      </c>
-      <c r="I180">
-        <v>0.9993477781613668</v>
+        <v>0.9997024577211021</v>
       </c>
       <c r="J180">
-        <v>0.9998712822368198</v>
+        <v>0.999841878093127</v>
       </c>
       <c r="L180">
-        <v>55.85899269960707</v>
+        <v>45.91074711244062</v>
       </c>
       <c r="M180">
-        <v>55.16735464281365</v>
+        <v>47.63813112289186</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7111,37 +7024,31 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>0.9995805621147156</v>
+        <v>0.9995554089546204</v>
       </c>
       <c r="C181">
-        <v>1.000295519828796</v>
+        <v>0.9999587535858154</v>
       </c>
       <c r="D181">
-        <v>0.9995036125183104</v>
+        <v>0.9992092847824096</v>
       </c>
       <c r="E181">
-        <v>0.9999184608459472</v>
+        <v>0.9993218779563904</v>
       </c>
       <c r="F181">
-        <v>3007549440</v>
+        <v>653993984</v>
       </c>
       <c r="G181">
-        <v>0.9995476618640922</v>
-      </c>
-      <c r="H181">
-        <v>0.9995271265506744</v>
-      </c>
-      <c r="I181">
-        <v>0.999360324939092</v>
+        <v>0.9996678595606737</v>
       </c>
       <c r="J181">
-        <v>0.9998719071190598</v>
+        <v>0.9998349906740974</v>
       </c>
       <c r="L181">
-        <v>61.04116500553182</v>
+        <v>41.61692008515565</v>
       </c>
       <c r="M181">
-        <v>58.67103265913723</v>
+        <v>44.73999381892143</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7149,37 +7056,31 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>0.9998478889465332</v>
+        <v>0.9992480874061584</v>
       </c>
       <c r="C182">
-        <v>1.000015377998352</v>
+        <v>0.9997658133506776</v>
       </c>
       <c r="D182">
-        <v>0.999660313129425</v>
+        <v>0.9992480874061584</v>
       </c>
       <c r="E182">
-        <v>0.9998690485954284</v>
+        <v>0.999659538269043</v>
       </c>
       <c r="F182">
-        <v>583835648</v>
+        <v>287703040</v>
       </c>
       <c r="G182">
-        <v>0.9995768788396682</v>
-      </c>
-      <c r="H182">
-        <v>0.9995725482702253</v>
-      </c>
-      <c r="I182">
-        <v>0.9993784964084624</v>
+        <v>0.9996671030796164</v>
       </c>
       <c r="J182">
-        <v>0.9998718692578197</v>
+        <v>0.9998326668011829</v>
       </c>
       <c r="L182">
-        <v>59.1098113412467</v>
+        <v>53.25526401231596</v>
       </c>
       <c r="M182">
-        <v>57.47437785712476</v>
+        <v>52.15721375599363</v>
       </c>
     </row>
   </sheetData>
